--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,207 +665,232 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1655000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2376000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1994000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1860000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1657000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2254000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1862000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1760000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1468000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1957000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1645000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1497000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1281000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1883000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>868000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1156000</v>
+      </c>
+      <c r="F9" s="3">
         <v>987000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>929000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>884000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1166000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>961000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>938000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>799000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>987000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>851000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>807000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>711000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>955000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>787000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1220000</v>
+      </c>
+      <c r="F10" s="3">
         <v>1007000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>931000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>773000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1088000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>901000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>822000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>669000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>970000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>794000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>690000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>570000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>928000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,52 +907,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>168000</v>
+      </c>
+      <c r="E12" s="3">
+        <v>182000</v>
+      </c>
+      <c r="F12" s="3">
         <v>172000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>170000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>162000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>165000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>158000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>162000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>152000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>155000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>141000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>138000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>135000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>142000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -970,96 +1003,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F14" s="3">
         <v>19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>55000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>13000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>17000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>26000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>16000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-9000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>60000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="F15" s="3">
         <v>52000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>52000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>50000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>48000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>46000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>53000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>41000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>40000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>39000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>37000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>36000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>30000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1073,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1396000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1788000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1589000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1557000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1436000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1743000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1562000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1487000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1297000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1456000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1298000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1240000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1105000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1484000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>588000</v>
+      </c>
+      <c r="F18" s="3">
         <v>405000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>303000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>221000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>511000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>300000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>273000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>171000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>501000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>347000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>257000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>176000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>399000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1179,101 +1244,115 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="F20" s="3">
         <v>3000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>31000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>24000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>32000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>17000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>23000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>19000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>356000</v>
+      </c>
+      <c r="F21" s="3">
         <v>507000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>430000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>340000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>620000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>421000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>386000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>276000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>606000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>429000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>346000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>254000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>493000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>60000</v>
+        <v>55000</v>
       </c>
       <c r="E22" s="3">
         <v>59000</v>
@@ -1282,125 +1361,143 @@
         <v>60000</v>
       </c>
       <c r="G22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I22" s="3">
         <v>62000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>62000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>63000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>54000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>51000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>55000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>55000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>54000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>56000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>224000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>193000</v>
+      </c>
+      <c r="F23" s="3">
         <v>348000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>275000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>185000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>465000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>270000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>227000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>140000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>466000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>286000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>205000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>120000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>362000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="F24" s="3">
         <v>80000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>67000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>33000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>107000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>36000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>165000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>73000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>73000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>42000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>118000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1443,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>198000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F26" s="3">
         <v>268000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>208000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>152000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>358000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>234000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>181000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>117000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>301000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>213000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>132000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>78000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>244000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F27" s="3">
         <v>267000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>207000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>151000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>357000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>233000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>180000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>117000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>299000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>212000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>131000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>77000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>243000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1575,52 +1690,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3">
         <v>65000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>14000</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-874000</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>-874000</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1663,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1707,96 +1840,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>336000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-31000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-24000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-32000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-17000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-23000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-19000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F33" s="3">
         <v>267000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>207000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>151000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>422000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>247000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>180000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>117000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-575000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>212000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>131000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>77000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>243000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1839,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F35" s="3">
         <v>267000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>207000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>151000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>422000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>247000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>180000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>117000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-575000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>212000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>131000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>77000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>243000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1950,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1968,52 +2139,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1672000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1001000</v>
+      </c>
+      <c r="F41" s="3">
         <v>1138000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>953000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>886000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1246000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>839000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>878000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>795000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1205000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>653000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>742000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>766000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1030000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2045,327 +2224,375 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>50000</v>
-      </c>
-      <c r="N42" s="3">
-        <v>45000</v>
-      </c>
-      <c r="O42" s="3">
-        <v>46000</v>
       </c>
       <c r="P42" s="3">
         <v>45000</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>46000</v>
+      </c>
+      <c r="R42" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2161000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2559000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2355000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2262000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2201000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2473000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2272000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2069000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2136000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1675000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1526000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1321000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1164000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1500000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>442000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>447000</v>
+      </c>
+      <c r="F44" s="3">
         <v>460000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>424000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>425000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>356000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>367000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>391000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>441000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>876000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>959000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>920000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>895000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>768000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F45" s="3">
         <v>201000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>192000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>202000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>197000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>186000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>243000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>249000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>194000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>198000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>178000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>203000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>124000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4481000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>4178000</v>
+      </c>
+      <c r="F46" s="3">
         <v>4154000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>3831000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3714000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>4272000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3664000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3581000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>3621000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>3950000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3336000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3211000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3073000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3468000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>253000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>307000</v>
+      </c>
+      <c r="F47" s="3">
         <v>261000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>328000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>323000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>330000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>372000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>363000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>364000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>358000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>312000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>323000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>314000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>327000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1453000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1546000</v>
+      </c>
+      <c r="F48" s="3">
         <v>1524000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1507000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1530000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>895000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>892000</v>
       </c>
       <c r="I48" s="3">
         <v>895000</v>
       </c>
       <c r="J48" s="3">
+        <v>892000</v>
+      </c>
+      <c r="K48" s="3">
+        <v>895000</v>
+      </c>
+      <c r="L48" s="3">
         <v>900000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>856000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>889000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>859000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>820000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>789000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3317000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3394000</v>
+      </c>
+      <c r="F49" s="3">
         <v>3337000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3184000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3276000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>2744000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>2838000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2868000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2971000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1799000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1828000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1617000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1615000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>1549000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2408,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2452,52 +2685,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1097000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1124000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>1150000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>1168000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1197000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>1174000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1195000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1245000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2253000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2285000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>2318000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>2330000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2540,52 +2785,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10716000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>10642000</v>
+      </c>
+      <c r="F54" s="3">
         <v>10373000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>9974000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9993000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>9409000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>8963000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>8881000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>9051000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8208000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8618000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>8295000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8140000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8463000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2602,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2620,272 +2879,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>531000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>618000</v>
+      </c>
+      <c r="F57" s="3">
         <v>557000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>544000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>558000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>592000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>456000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>430000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>463000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>593000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>473000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>440000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>433000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>553000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>814000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F58" s="3">
         <v>617000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>28000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>28000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>31000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>337000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>347000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>492000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>52000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>47000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>46000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>44000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2534000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2805000</v>
+      </c>
+      <c r="F59" s="3">
         <v>2482000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2304000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2393000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2473000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>2295000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2145000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2141000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2286000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2043000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1924000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1908000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2111000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3879000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3439000</v>
+      </c>
+      <c r="F60" s="3">
         <v>3656000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2876000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2979000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3096000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3088000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2922000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3096000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2931000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2563000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2410000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2385000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2668000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>5113000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5112000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>5315000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>5287000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>5289000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>5095000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>5298000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5304000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4419000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4423000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4421000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4414000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4392000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2656000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2773000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2689000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2737000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2817000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2300000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>2175000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2153000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2190000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2585000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>2450000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>2440000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>2378000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>2355000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2928,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2972,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3016,52 +3325,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11664000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>11342000</v>
+      </c>
+      <c r="F66" s="3">
         <v>11474000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>10944000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>11101000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>10702000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>10374000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>10388000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10605000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9950000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>9448000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>9283000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>9190000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>9427000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3078,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3122,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3166,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3210,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3254,52 +3595,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1239000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1220000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1051000</v>
-      </c>
-      <c r="F72" s="3">
-        <v>963000</v>
       </c>
       <c r="G72" s="3">
         <v>1051000</v>
       </c>
       <c r="H72" s="3">
+        <v>963000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>1051000</v>
+      </c>
+      <c r="J72" s="3">
         <v>788000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>627000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>531000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>467000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>981000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>945000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>970000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1148000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3342,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3386,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3430,52 +3795,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-948000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-700000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-970000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-830000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-988000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-964000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3518,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>243000</v>
+      </c>
+      <c r="F81" s="3">
         <v>267000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>207000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>151000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>422000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>247000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>180000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>117000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-575000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>212000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>131000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>77000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>243000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3629,8 +4024,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3638,43 +4035,49 @@
         <v>99000</v>
       </c>
       <c r="E83" s="3">
+        <v>104000</v>
+      </c>
+      <c r="F83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="G83" s="3">
         <v>96000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>95000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>89000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>96000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>82000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>89000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>88000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>86000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>75000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3717,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3761,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3805,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3849,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3893,52 +4320,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>795000</v>
+      </c>
+      <c r="F89" s="3">
         <v>526000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>251000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>251000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>812000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>338000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>425000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>761000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>270000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>173000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>142000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>513000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3955,52 +4394,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-48000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-60000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-63000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-66000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-46000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-41000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-41000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-21000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-85000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-53000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-68000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-60000</v>
       </c>
       <c r="P91" s="3">
         <v>-68000</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-68000</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4043,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4087,52 +4540,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-312000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-58000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-432000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-70000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-40000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-67000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-33000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-226000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-121000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-281000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4149,52 +4614,60 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-98000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-94000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-94000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-93000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-84000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-84000</v>
       </c>
       <c r="J96" s="3">
         <v>-84000</v>
       </c>
       <c r="K96" s="3">
-        <v>-77000</v>
+        <v>-84000</v>
       </c>
       <c r="L96" s="3">
-        <v>-76000</v>
+        <v>-84000</v>
       </c>
       <c r="M96" s="3">
         <v>-77000</v>
       </c>
       <c r="N96" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-77000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-67000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4237,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4281,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4325,136 +4810,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>439000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-815000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-110000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-201000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-314000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-388000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-227000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1149000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-185000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-152000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-151000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-234000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-851000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-50000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-20000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>22000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-22000</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-48000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>30000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-38000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-139000</v>
+      </c>
+      <c r="F102" s="3">
         <v>176000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>67000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-360000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>406000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-90000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>83000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-410000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>551000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-88000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-24000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-201000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-657000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1618000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1655000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2376000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1994000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1860000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1657000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2254000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1862000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1760000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1468000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1957000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1645000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1497000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1281000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1883000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>852000</v>
+      </c>
+      <c r="E9" s="3">
         <v>868000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1156000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>987000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>929000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>884000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1166000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>961000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>938000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>799000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>987000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>851000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>807000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>711000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>955000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>766000</v>
+      </c>
+      <c r="E10" s="3">
         <v>787000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1220000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1007000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>931000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>773000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1088000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>901000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>822000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>669000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>970000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>794000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>690000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>570000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>928000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E12" s="3">
         <v>168000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>182000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>172000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>170000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>162000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>165000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>158000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>162000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>152000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>155000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>141000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>138000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>135000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>142000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,108 +1026,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>55000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>17000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>26000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>60000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E15" s="3">
         <v>53000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>52000</v>
       </c>
       <c r="G15" s="3">
         <v>52000</v>
       </c>
       <c r="H15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="I15" s="3">
         <v>50000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>48000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>46000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>41000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>40000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>39000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>37000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>36000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>30000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1400000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1396000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1788000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1589000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1557000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1436000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1743000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1562000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1487000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1297000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1456000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1298000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1240000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1105000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1484000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E18" s="3">
         <v>259000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>588000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>405000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>303000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>221000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>511000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>273000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>171000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>501000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>347000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>257000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>176000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>399000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,258 +1279,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E20" s="3">
         <v>20000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-336000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>31000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>32000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>23000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E21" s="3">
         <v>378000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>356000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>507000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>430000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>340000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>620000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>421000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>386000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>276000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>606000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>429000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>346000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>254000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>493000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="E22" s="3">
         <v>55000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>60000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>62000</v>
       </c>
       <c r="J22" s="3">
         <v>62000</v>
       </c>
       <c r="K22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="L22" s="3">
         <v>63000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>54000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>51000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>55000</v>
       </c>
       <c r="O22" s="3">
         <v>55000</v>
       </c>
       <c r="P22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>54000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>56000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>176000</v>
+      </c>
+      <c r="E23" s="3">
         <v>224000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>193000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>348000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>275000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>185000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>465000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>270000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>227000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>140000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>466000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>286000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>205000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>120000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>362000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E24" s="3">
         <v>26000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-50000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>80000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>67000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>33000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>107000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>36000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>73000</v>
       </c>
       <c r="O24" s="3">
         <v>73000</v>
       </c>
       <c r="P24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="Q24" s="3">
         <v>42000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>118000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>136000</v>
+      </c>
+      <c r="E26" s="3">
         <v>198000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>243000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>268000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>208000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>152000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>358000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>234000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>181000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>117000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>301000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>213000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>132000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>78000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>244000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E27" s="3">
         <v>197000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>243000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>267000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>207000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>151000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>357000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>233000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>180000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>117000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>299000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>212000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>131000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>77000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>243000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1696,19 +1754,22 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -1716,23 +1777,23 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="3">
         <v>65000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>14000</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1740,14 +1801,17 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-20000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>336000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-31000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-32000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-23000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E33" s="3">
         <v>197000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>243000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>267000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>207000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>151000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>422000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>247000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>180000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>117000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-575000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>212000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>131000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>77000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>243000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E35" s="3">
         <v>197000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>243000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>267000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>207000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>151000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>422000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>247000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>180000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>117000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-575000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>212000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>131000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>77000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>243000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1341000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1672000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1001000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1138000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>953000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>886000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1246000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>839000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>878000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>795000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1205000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>653000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>742000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>766000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1030000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2230,369 +2320,393 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>50000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>45000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>46000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2141000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2161000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2559000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2355000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2262000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2201000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2473000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2272000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2069000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2136000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1675000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1526000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1321000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1164000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1500000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>449000</v>
+      </c>
+      <c r="E44" s="3">
         <v>442000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>447000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>460000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>424000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>425000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>356000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>367000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>391000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>441000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>876000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>959000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>920000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>895000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>768000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>155000</v>
+      </c>
+      <c r="E45" s="3">
         <v>206000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>171000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>201000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>192000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>202000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>197000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>186000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>243000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>249000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>194000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>198000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>178000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>203000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>124000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4086000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4481000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4178000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4154000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3831000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3714000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4272000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3664000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3581000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3621000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3950000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3336000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3211000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3073000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3468000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>258000</v>
+      </c>
+      <c r="E47" s="3">
         <v>253000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>307000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>261000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>328000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>323000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>330000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>372000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>363000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>364000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>358000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>312000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>323000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>314000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>327000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1427000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1453000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1546000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1524000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1507000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1530000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>895000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>892000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>895000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>900000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>856000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>889000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>859000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>820000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>789000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3365000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3317000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3394000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3337000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3184000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3276000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2744000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2838000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2868000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2971000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1799000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1828000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1617000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1615000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1549000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1212000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1217000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1097000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1124000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1150000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1168000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1197000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1174000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1195000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1245000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2253000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2285000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2318000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2330000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10374000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10716000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10642000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10373000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9974000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9993000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9409000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8963000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8881000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9051000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8208000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8618000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8295000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8140000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8463000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,208 +3011,221 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>498000</v>
+      </c>
+      <c r="E57" s="3">
         <v>531000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>618000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>557000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>544000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>558000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>592000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>456000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>430000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>463000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>593000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>473000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>440000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>433000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>553000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>517000</v>
+      </c>
+      <c r="E58" s="3">
         <v>814000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>617000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>28000</v>
       </c>
       <c r="H58" s="3">
         <v>28000</v>
       </c>
       <c r="I58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="J58" s="3">
         <v>31000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>337000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>347000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>492000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>52000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>47000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>46000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>44000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2465000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2534000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2805000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2482000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2304000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2393000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2473000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2295000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2145000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2141000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2286000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2043000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1924000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1908000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2111000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3480000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3879000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3439000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3656000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2876000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2979000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3096000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3088000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2922000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3096000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2931000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2563000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2410000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2385000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2668000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3090,99 +3233,105 @@
         <v>5111000</v>
       </c>
       <c r="E61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="F61" s="3">
         <v>5113000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5112000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5315000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5287000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5289000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5095000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5298000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5304000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4419000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4423000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4421000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4414000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4392000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2598000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2656000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2773000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2689000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2737000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2817000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2300000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2175000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2153000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2190000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2585000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2450000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2440000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2378000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2355000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11204000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11664000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11342000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11474000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10944000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11101000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10702000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10374000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10388000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10605000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9950000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9448000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9283000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9190000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9427000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1017000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1074000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1239000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1220000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1051000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>963000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1051000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>788000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>627000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>531000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>467000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>981000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>945000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>970000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1148000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-830000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-948000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-700000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-970000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-830000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-988000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-964000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E81" s="3">
         <v>197000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>243000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>267000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>207000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>151000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>422000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>247000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>180000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>117000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-575000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>212000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>131000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>77000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>243000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E83" s="3">
         <v>99000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>104000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>96000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>96000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>82000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>88000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>75000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E89" s="3">
         <v>308000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>795000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>526000</v>
-      </c>
-      <c r="G89" s="3">
-        <v>251000</v>
       </c>
       <c r="H89" s="3">
         <v>251000</v>
       </c>
       <c r="I89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="J89" s="3">
         <v>812000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>338000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>425000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>761000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>270000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>173000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>142000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>513000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-48000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-60000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-63000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-66000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-41000</v>
       </c>
       <c r="L91" s="3">
         <v>-41000</v>
       </c>
       <c r="M91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="N91" s="3">
         <v>-21000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-85000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-53000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-26000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-132000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-312000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-432000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-40000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-67000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-33000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-226000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-68000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-121000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-281000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,22 +4859,22 @@
         <v>-109000</v>
       </c>
       <c r="E96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-94000</v>
       </c>
       <c r="G96" s="3">
         <v>-94000</v>
       </c>
       <c r="H96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-93000</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-84000</v>
       </c>
       <c r="K96" s="3">
         <v>-84000</v>
@@ -4649,25 +4883,28 @@
         <v>-84000</v>
       </c>
       <c r="M96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-77000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-77000</v>
       </c>
       <c r="P96" s="3">
         <v>-77000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-67000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-456000</v>
+      </c>
+      <c r="E100" s="3">
         <v>439000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-815000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-110000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-201000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-314000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-388000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-227000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1149000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-185000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-152000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-151000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-234000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-851000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-50000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>13000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-20000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-16000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>22000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-22000</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-48000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>30000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-38000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-331000</v>
+      </c>
+      <c r="E102" s="3">
         <v>671000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-139000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>176000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>67000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-360000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>406000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-90000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>83000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-410000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>551000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-88000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-24000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-657000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,258 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1868000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1618000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1655000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2376000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1994000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1860000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1657000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2254000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1862000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1760000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1468000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1957000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1645000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1497000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1281000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1883000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E9" s="3">
         <v>852000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>868000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1156000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>987000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>929000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>884000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1166000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>961000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>938000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>799000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>987000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>851000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>807000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>711000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>955000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>909000</v>
+      </c>
+      <c r="E10" s="3">
         <v>766000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>787000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1220000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1007000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>931000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>773000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1088000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>901000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>822000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>669000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>970000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>794000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>690000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>570000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>928000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,61 +936,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E12" s="3">
         <v>161000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>168000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>182000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>172000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>170000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>162000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>165000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>158000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>162000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>152000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>155000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>141000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>138000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>135000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>142000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,114 +1046,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>34000</v>
+        <v>71000</v>
       </c>
       <c r="E14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>55000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>28000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>17000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>26000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-9000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>60000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E15" s="3">
         <v>51000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>53000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>52000</v>
       </c>
       <c r="H15" s="3">
         <v>52000</v>
       </c>
       <c r="I15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="J15" s="3">
         <v>50000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>48000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>46000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>53000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>41000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>40000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>39000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>37000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>36000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>30000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1179,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1572000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1400000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1396000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1788000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1589000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1557000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1436000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1743000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1562000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1487000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1297000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1456000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1298000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1240000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1105000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1484000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>296000</v>
+      </c>
+      <c r="E18" s="3">
         <v>218000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>259000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>588000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>405000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>303000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>221000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>511000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>273000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>171000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>501000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>347000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>257000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>176000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>399000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1280,114 +1313,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="3">
         <v>18000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-336000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>3000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>31000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>32000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>23000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>414000</v>
+      </c>
+      <c r="E21" s="3">
         <v>334000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>378000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>356000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>507000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>430000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>340000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>620000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>421000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>386000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>276000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>606000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>429000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>346000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>254000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>493000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,158 +1435,167 @@
         <v>60000</v>
       </c>
       <c r="E22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F22" s="3">
         <v>55000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>60000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>62000</v>
       </c>
       <c r="K22" s="3">
         <v>62000</v>
       </c>
       <c r="L22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="M22" s="3">
         <v>63000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>54000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>51000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>55000</v>
       </c>
       <c r="P22" s="3">
         <v>55000</v>
       </c>
       <c r="Q22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="R22" s="3">
         <v>54000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>56000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E23" s="3">
         <v>176000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>224000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>193000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>348000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>275000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>185000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>465000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>270000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>227000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>140000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>466000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>286000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>205000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>120000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>362000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E24" s="3">
         <v>40000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>26000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-50000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>80000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>67000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>107000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>36000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>165000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>73000</v>
       </c>
       <c r="P24" s="3">
         <v>73000</v>
       </c>
       <c r="Q24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="R24" s="3">
         <v>42000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>118000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1598,114 +1647,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E26" s="3">
         <v>136000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>198000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>243000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>268000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>208000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>152000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>358000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>234000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>181000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>117000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>301000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>213000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>132000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>78000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>244000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E27" s="3">
         <v>135000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>197000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>243000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>267000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>207000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>151000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>357000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>233000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>180000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>117000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>299000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>212000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>131000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>77000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>243000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1757,8 +1815,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1768,11 +1829,11 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
@@ -1780,23 +1841,23 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="3">
         <v>65000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>14000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1804,14 +1865,17 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1927,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +1983,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>336000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-3000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-31000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-32000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-23000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E33" s="3">
         <v>135000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>197000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>243000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>267000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>207000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>151000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>422000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>247000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>180000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>117000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-575000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>212000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>131000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>77000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>243000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2151,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E35" s="3">
         <v>135000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>197000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>243000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>267000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>207000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>151000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>422000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>247000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>180000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>117000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-575000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>212000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>131000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>77000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>243000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2292,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2314,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1341000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1672000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1001000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1138000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>953000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>886000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1246000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>839000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>878000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>795000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1205000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>653000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>742000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>766000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1030000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2323,390 +2413,414 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>50000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>45000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>46000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2314000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2141000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2161000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2559000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2355000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2262000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2201000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2473000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2272000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2069000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2136000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1675000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1526000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1321000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1164000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1500000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E44" s="3">
         <v>449000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>442000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>447000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>460000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>424000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>425000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>356000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>367000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>391000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>441000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>876000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>959000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>920000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>895000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>768000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>161000</v>
+      </c>
+      <c r="E45" s="3">
         <v>155000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>206000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>171000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>201000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>192000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>202000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>197000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>186000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>243000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>249000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>194000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>198000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>178000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>203000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>124000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3971000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4086000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4481000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4178000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4154000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3831000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3714000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4272000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3664000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3581000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3621000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3950000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3336000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3211000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3073000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3468000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>255000</v>
+      </c>
+      <c r="E47" s="3">
         <v>258000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>253000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>307000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>261000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>328000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>323000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>330000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>372000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>363000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>364000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>358000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>312000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>323000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>314000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>327000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1427000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1453000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1546000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1524000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1507000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1530000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>895000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>892000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>895000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>900000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>856000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>889000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>859000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>820000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>789000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3475000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3365000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3317000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3394000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3337000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3184000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3276000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2744000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2838000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2868000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2971000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1799000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1828000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1617000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1615000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1549000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2872,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +2928,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1212000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1238000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1212000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1217000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1097000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1124000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1150000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1168000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1197000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1174000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1195000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1245000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2253000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2285000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2318000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2330000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3040,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10361000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10374000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10716000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10642000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10373000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9974000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9993000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9409000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8963000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8881000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9051000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8208000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8618000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8295000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8140000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8463000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3120,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,326 +3142,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>536000</v>
+      </c>
+      <c r="E57" s="3">
         <v>498000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>531000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>618000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>557000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>544000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>558000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>592000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>456000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>430000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>463000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>593000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>473000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>440000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>433000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>553000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E58" s="3">
         <v>517000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>814000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>617000</v>
-      </c>
-      <c r="H58" s="3">
-        <v>28000</v>
       </c>
       <c r="I58" s="3">
         <v>28000</v>
       </c>
       <c r="J58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="K58" s="3">
         <v>31000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>337000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>347000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>492000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>52000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>47000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>46000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>44000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2564000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2465000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2534000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2805000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2482000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2304000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2393000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2473000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2295000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2145000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2141000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2286000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2043000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1924000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1908000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2111000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3312000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3480000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3879000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3439000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3656000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2876000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2979000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3096000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3088000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2922000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3096000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2931000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2563000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2410000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2385000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2668000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5111000</v>
+        <v>5162000</v>
       </c>
       <c r="E61" s="3">
         <v>5111000</v>
       </c>
       <c r="F61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="G61" s="3">
         <v>5113000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5112000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5315000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5287000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5289000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5095000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5298000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5304000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4419000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4423000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4421000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4414000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4392000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2627000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2598000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2656000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2773000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2689000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2737000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2817000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2300000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2175000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2153000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2190000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2585000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2450000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2440000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2378000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2355000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3532,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3436,8 +3588,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3644,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11117000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11204000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11664000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11342000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11474000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10944000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11101000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10702000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10374000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10388000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10605000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9950000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9448000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9283000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9190000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9427000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3724,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3778,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3834,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3890,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3946,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1008000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1017000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1074000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1239000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1220000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1051000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>963000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1051000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>788000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>627000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>531000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>467000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>981000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>945000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>970000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1148000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4058,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4114,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4170,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-756000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-830000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-948000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-700000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-970000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-830000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-988000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-964000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4282,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44100</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E81" s="3">
         <v>135000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>197000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>243000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>267000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>207000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>151000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>422000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>247000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>180000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>117000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-575000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>212000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>131000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>77000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>243000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4423,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E83" s="3">
         <v>98000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>99000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>104000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>96000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>95000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>96000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>82000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>88000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>80000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>75000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4533,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4589,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4645,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4701,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4757,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>392000</v>
+      </c>
+      <c r="E89" s="3">
         <v>209000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>308000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>795000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>526000</v>
-      </c>
-      <c r="H89" s="3">
-        <v>251000</v>
       </c>
       <c r="I89" s="3">
         <v>251000</v>
       </c>
       <c r="J89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="K89" s="3">
         <v>812000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>338000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>425000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-500000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>761000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>270000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>173000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>142000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>513000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4837,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-48000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-60000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-63000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-41000</v>
       </c>
       <c r="M91" s="3">
         <v>-41000</v>
       </c>
       <c r="N91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="O91" s="3">
         <v>-21000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-85000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-68000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4947,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5003,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-228000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-115000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-26000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-132000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-312000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-432000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-40000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-67000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-33000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-226000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-121000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-281000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5083,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,22 +5096,22 @@
         <v>-109000</v>
       </c>
       <c r="F96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-94000</v>
       </c>
       <c r="H96" s="3">
         <v>-94000</v>
       </c>
       <c r="I96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-93000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-84000</v>
       </c>
       <c r="L96" s="3">
         <v>-84000</v>
@@ -4886,25 +5120,28 @@
         <v>-84000</v>
       </c>
       <c r="N96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-77000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-77000</v>
       </c>
       <c r="Q96" s="3">
         <v>-77000</v>
       </c>
       <c r="R96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-67000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5193,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5249,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5305,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-515000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-456000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>439000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-815000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-110000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-201000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-314000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-388000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-227000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1149000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-185000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-152000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-151000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-234000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-851000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E101" s="3">
         <v>31000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-50000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>13000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-20000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>22000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22000</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-48000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>30000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-38000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-334000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-331000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>671000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-139000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>176000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>67000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-360000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>406000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-90000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>83000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-410000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>551000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-88000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-201000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-657000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,258 +665,270 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2273000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1868000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1618000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1655000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2376000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1994000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1860000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1657000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2254000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1862000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1760000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1468000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1957000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1645000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1497000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1281000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1883000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1127000</v>
+      </c>
+      <c r="E9" s="3">
         <v>959000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>852000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>868000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1156000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>987000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>929000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>884000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1166000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>961000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>938000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>799000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>987000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>851000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>807000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>711000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>955000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1146000</v>
+      </c>
+      <c r="E10" s="3">
         <v>909000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>766000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>787000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1220000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1007000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>931000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>773000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1088000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>901000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>822000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>669000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>970000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>794000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>690000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>570000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>928000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E12" s="3">
         <v>175000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>161000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>168000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>182000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>172000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>170000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>162000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>165000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>158000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>162000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>152000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>155000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>141000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>138000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>135000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>142000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1049,120 +1065,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>71000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>19000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>55000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>28000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>17000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>18000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>26000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-9000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>60000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E15" s="3">
         <v>54000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>51000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>53000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>54000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>52000</v>
       </c>
       <c r="I15" s="3">
         <v>52000</v>
       </c>
       <c r="J15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="K15" s="3">
         <v>50000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>48000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>46000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>53000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>41000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>40000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>39000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>37000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>36000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>30000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1205,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1572000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1400000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1396000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1788000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1589000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1557000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1436000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1743000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1562000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1487000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1297000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1456000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1298000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1240000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1105000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1484000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E18" s="3">
         <v>296000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>218000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>259000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>588000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>405000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>303000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>221000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>511000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>273000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>171000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>501000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>347000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>257000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>176000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>399000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1314,288 +1346,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E20" s="3">
         <v>15000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>18000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-336000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>31000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>32000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>23000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>19000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E21" s="3">
         <v>414000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>334000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>378000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>356000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>507000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>430000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>340000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>620000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>421000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>386000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>276000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>606000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>429000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>346000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>254000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>493000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>60000</v>
+        <v>58000</v>
       </c>
       <c r="E22" s="3">
         <v>60000</v>
       </c>
       <c r="F22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="G22" s="3">
         <v>55000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>60000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>62000</v>
       </c>
       <c r="L22" s="3">
         <v>62000</v>
       </c>
       <c r="M22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="N22" s="3">
         <v>63000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>54000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>51000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>55000</v>
       </c>
       <c r="Q22" s="3">
         <v>55000</v>
       </c>
       <c r="R22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="S22" s="3">
         <v>54000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>56000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>522000</v>
+      </c>
+      <c r="E23" s="3">
         <v>251000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>176000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>224000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>193000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>348000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>275000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>185000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>465000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>270000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>227000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>140000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>466000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>286000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>205000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>120000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>362000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E24" s="3">
         <v>45000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>40000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>26000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-50000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>80000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>67000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>33000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>107000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>36000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>46000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>165000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>73000</v>
       </c>
       <c r="Q24" s="3">
         <v>73000</v>
       </c>
       <c r="R24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="S24" s="3">
         <v>42000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>118000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1650,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>413000</v>
+      </c>
+      <c r="E26" s="3">
         <v>206000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>136000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>198000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>243000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>268000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>208000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>152000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>358000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>234000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>181000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>117000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>301000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>213000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>132000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>244000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E27" s="3">
         <v>205000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>135000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>197000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>243000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>267000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>207000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>151000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>357000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>233000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>180000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>117000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>299000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>212000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>131000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>77000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>243000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1832,11 +1892,11 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>24</v>
@@ -1844,23 +1904,23 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29" s="3">
         <v>65000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>14000</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1868,14 +1928,17 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-18000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>336000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-31000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-32000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-23000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-19000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E33" s="3">
         <v>205000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>135000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>197000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>243000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>267000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>207000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>151000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>422000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>247000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>180000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>117000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-575000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>212000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>131000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>77000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>243000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E35" s="3">
         <v>205000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>135000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>197000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>243000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>267000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>207000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>151000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>422000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>247000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>180000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>117000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-575000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>212000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>131000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>77000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>243000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1254000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1007000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1341000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1672000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1001000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1138000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>953000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>886000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1246000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>839000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>878000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>795000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1205000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>653000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>742000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>766000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1030000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2416,411 +2505,435 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>50000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>45000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>46000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2398000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2314000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2141000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2161000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2559000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2355000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2262000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2201000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2473000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2272000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2069000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2136000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1675000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1526000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1321000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1164000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1500000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>508000</v>
+      </c>
+      <c r="E44" s="3">
         <v>489000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>449000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>442000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>447000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>460000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>424000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>425000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>356000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>367000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>391000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>441000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>876000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>959000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>920000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>895000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>768000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E45" s="3">
         <v>161000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>155000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>206000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>171000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>201000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>192000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>202000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>197000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>186000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>243000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>249000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>194000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>198000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>178000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>203000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>124000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4327000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3971000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4086000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4481000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4178000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4154000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3831000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3714000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4272000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3664000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3581000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3621000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3950000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3336000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3211000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3073000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3468000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E47" s="3">
         <v>255000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>258000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>253000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>307000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>261000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>328000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>323000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>330000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>372000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>363000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>364000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>358000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>312000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>323000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>314000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>327000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1490000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1448000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1427000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1453000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1546000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1524000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1507000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1530000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>895000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>892000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>895000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>900000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>856000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>889000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>859000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>820000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>789000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3453000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3475000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3365000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3317000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3394000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3337000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3184000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3276000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2744000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2838000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2868000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2971000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1799000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1828000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1617000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1615000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1549000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,64 +3047,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1212000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1238000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1212000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1217000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1097000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1124000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1150000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1168000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1197000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1174000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1195000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1245000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2253000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2285000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2318000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2330000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10876000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10361000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10374000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10716000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10642000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10373000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9974000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9993000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9409000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8963000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8881000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9051000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8208000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8618000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8295000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8140000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8463000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,344 +3272,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>612000</v>
+      </c>
+      <c r="E57" s="3">
         <v>536000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>498000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>531000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>618000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>557000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>544000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>558000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>592000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>456000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>430000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>463000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>593000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>473000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>440000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>433000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>553000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>212000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>517000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>814000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>617000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>28000</v>
       </c>
       <c r="J58" s="3">
         <v>28000</v>
       </c>
       <c r="K58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="L58" s="3">
         <v>31000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>337000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>347000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>492000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>52000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>47000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>46000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>44000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2865000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2564000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2465000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2534000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2805000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2482000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2304000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2393000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2473000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2295000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2145000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2141000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2286000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2043000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1924000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1908000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2111000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3489000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3312000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3480000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3879000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3439000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3656000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2876000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2979000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3096000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3088000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2922000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3096000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2931000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2563000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2410000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2385000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2668000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5163000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>5111000</v>
       </c>
       <c r="F61" s="3">
         <v>5111000</v>
       </c>
       <c r="G61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="H61" s="3">
         <v>5113000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5112000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5315000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5287000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5289000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5095000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5298000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5304000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4419000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4423000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4421000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4414000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4392000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2765000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2627000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2598000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2656000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2773000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2689000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2737000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2817000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2300000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2175000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2153000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2190000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2585000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2450000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2440000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2378000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2355000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3591,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11434000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11117000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11204000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11664000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11342000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11474000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10944000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11101000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10702000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10374000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10388000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10605000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9950000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9448000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9283000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9190000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9427000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3893,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1127000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1008000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1017000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1074000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1239000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1220000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1051000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>963000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1051000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>788000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>627000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>531000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>467000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>981000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>945000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>970000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1148000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-558000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-756000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-830000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-948000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-700000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-970000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-830000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-988000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-964000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E81" s="3">
         <v>205000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>135000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>197000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>243000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>267000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>207000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>151000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>422000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>247000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>180000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>117000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-575000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>212000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>131000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>77000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>243000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,64 +4621,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E83" s="3">
         <v>103000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>98000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>99000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>104000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>96000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>95000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>93000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>89000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>96000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>82000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>88000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>80000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>75000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>704000</v>
+      </c>
+      <c r="E89" s="3">
         <v>392000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>209000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>308000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>795000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>526000</v>
-      </c>
-      <c r="I89" s="3">
-        <v>251000</v>
       </c>
       <c r="J89" s="3">
         <v>251000</v>
       </c>
       <c r="K89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="L89" s="3">
         <v>812000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>338000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>425000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>761000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>270000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>173000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>142000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>513000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-48000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-60000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-63000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-41000</v>
       </c>
       <c r="N91" s="3">
         <v>-41000</v>
       </c>
       <c r="O91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="P91" s="3">
         <v>-21000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-53000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-68000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-228000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-115000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-132000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-312000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-432000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-40000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-67000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-33000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-226000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-68000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-121000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-281000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5099,22 +5332,22 @@
         <v>-109000</v>
       </c>
       <c r="G96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-94000</v>
       </c>
       <c r="I96" s="3">
         <v>-94000</v>
       </c>
       <c r="J96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-93000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-84000</v>
       </c>
       <c r="M96" s="3">
         <v>-84000</v>
@@ -5123,25 +5356,28 @@
         <v>-84000</v>
       </c>
       <c r="O96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-77000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-77000</v>
       </c>
       <c r="R96" s="3">
         <v>-77000</v>
       </c>
       <c r="S96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-67000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,172 +5550,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-434000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-515000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-456000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>439000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-815000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-110000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-201000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-314000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-388000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-227000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1149000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-185000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-152000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-151000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-234000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-851000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E101" s="3">
         <v>17000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>31000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-50000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>13000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-20000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>22000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22000</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-48000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>30000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-38000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-334000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-331000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>671000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-139000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>176000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>67000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-360000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>406000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-90000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>83000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-410000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>551000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-24000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-201000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-657000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,283 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2273000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1868000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1618000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1655000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2376000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1994000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1860000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1657000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2254000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1862000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1760000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1468000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1957000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1645000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1497000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1281000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1883000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>913000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1127000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>959000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>852000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>868000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1156000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>987000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>929000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>884000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1166000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>961000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>938000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>799000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>987000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>851000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>807000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>711000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>955000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>860000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1146000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>909000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>766000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>787000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1220000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1007000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>931000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>773000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1088000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>901000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>822000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>669000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>970000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>794000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>690000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>570000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>928000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E12" s="3">
         <v>181000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>175000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>161000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>168000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>182000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>172000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>170000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>162000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>165000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>158000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>162000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>152000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>155000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>141000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>138000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>135000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>142000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,126 +1085,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>71000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>39000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>19000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>55000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>13000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>28000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>17000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>18000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>26000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>29000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>16000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-9000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>60000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E15" s="3">
         <v>57000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>54000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>51000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>53000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>54000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>52000</v>
       </c>
       <c r="J15" s="3">
         <v>52000</v>
       </c>
       <c r="K15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="L15" s="3">
         <v>50000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>48000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>46000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>53000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>41000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>40000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>39000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>37000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>36000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>30000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1232,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1722000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1572000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1400000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1396000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1788000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1589000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1557000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1436000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1743000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1562000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1487000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1297000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1456000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1298000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1240000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1105000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1484000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E18" s="3">
         <v>551000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>296000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>218000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>259000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>588000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>405000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>303000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>221000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>511000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>273000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>171000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>501000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>347000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>257000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>176000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>399000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1347,303 +1380,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E20" s="3">
         <v>29000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>15000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-336000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>31000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>24000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>32000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>17000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>23000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>19000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E21" s="3">
         <v>689000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>414000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>334000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>378000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>356000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>507000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>430000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>340000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>620000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>421000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>386000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>276000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>606000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>429000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>346000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>254000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>493000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
-      </c>
-      <c r="E22" s="3">
-        <v>60000</v>
       </c>
       <c r="F22" s="3">
         <v>60000</v>
       </c>
       <c r="G22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="H22" s="3">
         <v>55000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>60000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>62000</v>
       </c>
       <c r="M22" s="3">
         <v>62000</v>
       </c>
       <c r="N22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="O22" s="3">
         <v>63000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>54000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>55000</v>
       </c>
       <c r="R22" s="3">
         <v>55000</v>
       </c>
       <c r="S22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="T22" s="3">
         <v>54000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>56000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>289000</v>
+      </c>
+      <c r="E23" s="3">
         <v>522000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>251000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>176000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>224000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>193000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>348000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>275000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>185000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>465000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>270000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>227000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>140000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>466000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>286000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>205000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>120000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>362000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E24" s="3">
         <v>109000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>45000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>40000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>26000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-50000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>80000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>67000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>107000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>36000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>46000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>165000</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>73000</v>
       </c>
       <c r="R24" s="3">
         <v>73000</v>
       </c>
       <c r="S24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="T24" s="3">
         <v>42000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>118000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E26" s="3">
         <v>413000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>206000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>136000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>198000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>243000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>268000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>208000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>152000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>358000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>234000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>181000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>117000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>301000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>213000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>132000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>244000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E27" s="3">
         <v>412000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>205000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>135000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>197000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>243000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>267000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>207000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>151000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>357000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>233000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>180000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>117000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>299000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>212000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>131000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>77000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>243000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1895,11 +1956,11 @@
       <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
@@ -1907,23 +1968,23 @@
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" s="3">
         <v>65000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>14000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1931,14 +1992,17 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-29000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-15000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>336000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-3000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-31000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-24000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-32000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-17000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-23000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-19000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E33" s="3">
         <v>412000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>205000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>135000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>197000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>243000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>267000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>207000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>151000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>422000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>247000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>180000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>117000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-575000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>212000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>131000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>77000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>243000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E35" s="3">
         <v>412000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>205000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>135000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>197000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>243000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>267000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>207000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>151000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>422000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>247000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>180000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>117000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-575000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>212000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>131000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>77000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>243000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1320000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1254000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1007000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1341000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1672000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1001000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1138000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>953000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>886000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1246000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>839000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>878000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>795000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1205000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>653000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>742000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>766000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1030000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2508,432 +2598,456 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>50000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>45000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>46000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2398000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2314000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2141000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2161000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2559000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2355000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2262000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2201000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2473000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2272000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2069000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2136000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1675000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1526000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1321000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1164000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1500000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>530000</v>
+      </c>
+      <c r="E44" s="3">
         <v>508000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>489000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>449000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>442000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>447000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>460000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>424000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>425000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>356000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>367000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>391000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>441000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>876000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>959000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>920000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>895000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>768000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>192000</v>
+      </c>
+      <c r="E45" s="3">
         <v>167000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>161000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>155000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>206000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>171000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>201000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>192000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>202000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>197000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>186000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>243000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>249000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>194000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>198000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>178000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>203000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>124000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3942000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4327000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3971000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4086000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4481000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4178000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4154000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3831000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3714000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4272000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3664000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3581000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3621000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3950000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3336000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3211000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3073000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3468000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>273000</v>
+      </c>
+      <c r="E47" s="3">
         <v>263000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>255000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>258000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>253000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>307000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>261000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>328000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>323000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>330000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>372000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>363000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>364000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>358000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>312000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>323000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>314000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>327000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1476000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1490000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1448000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1427000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1453000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1546000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1524000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1507000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1530000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>895000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>892000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>895000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>900000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>856000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>889000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>859000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>820000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>789000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3401000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3453000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3475000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3365000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3317000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3394000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3337000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3184000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3276000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2744000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2838000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2868000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2971000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1799000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1828000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1617000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1615000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1549000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,67 +3167,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1331000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1343000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1212000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1238000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1212000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1217000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1097000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1124000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1150000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1168000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1197000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1174000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1195000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1245000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2253000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2285000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2318000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2330000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10423000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10876000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10361000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10374000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10716000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10642000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10373000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9974000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9993000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9409000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8963000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8881000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9051000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8208000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8618000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8295000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8140000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8463000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,362 +3403,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>484000</v>
+      </c>
+      <c r="E57" s="3">
         <v>612000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>536000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>498000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>531000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>618000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>557000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>544000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>558000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>592000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>456000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>430000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>463000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>593000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>473000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>440000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>433000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>553000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>212000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>517000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>814000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>16000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>617000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>28000</v>
       </c>
       <c r="K58" s="3">
         <v>28000</v>
       </c>
       <c r="L58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="M58" s="3">
         <v>31000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>337000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>347000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>492000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>52000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>47000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>46000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>44000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2865000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2564000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2465000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2534000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2805000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2482000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2304000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2393000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2473000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2295000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2145000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2141000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2286000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2043000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1924000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1908000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2111000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3095000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3489000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3312000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3480000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3879000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3439000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3656000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2876000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2979000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3096000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3088000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2922000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3096000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2931000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2563000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2410000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2385000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2668000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5164000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5163000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>5111000</v>
       </c>
       <c r="G61" s="3">
         <v>5111000</v>
       </c>
       <c r="H61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="I61" s="3">
         <v>5113000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5112000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5315000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5287000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5289000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5095000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5298000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5304000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4419000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4423000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4421000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4414000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4392000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2642000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2765000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2627000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2598000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2656000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2773000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2689000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2737000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2817000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2300000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2175000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2153000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2190000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2585000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2450000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2440000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2378000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2355000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10919000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11434000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11117000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11204000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11664000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11342000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11474000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10944000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11101000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10702000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10374000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10388000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10605000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9950000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9448000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9283000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9190000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9427000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1127000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1008000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1017000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1074000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1239000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1220000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1051000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>963000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1051000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>788000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>627000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>531000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>467000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>981000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>945000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>970000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1148000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-496000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-558000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-756000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-830000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-948000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-700000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-970000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-830000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-988000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-964000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E81" s="3">
         <v>412000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>205000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>135000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>197000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>243000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>267000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>207000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>151000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>422000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>247000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>180000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>117000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-575000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>212000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>131000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>77000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>243000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,67 +4820,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E83" s="3">
         <v>109000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>103000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>98000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>99000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>104000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>96000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>95000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>89000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>96000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>82000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>88000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>86000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>75000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>370000</v>
+      </c>
+      <c r="E89" s="3">
         <v>704000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>392000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>209000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>308000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>795000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>526000</v>
-      </c>
-      <c r="J89" s="3">
-        <v>251000</v>
       </c>
       <c r="K89" s="3">
         <v>251000</v>
       </c>
       <c r="L89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="M89" s="3">
         <v>812000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>338000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>425000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>761000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>270000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>173000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>142000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>513000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-66000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-49000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-48000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-60000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-63000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-69000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-41000</v>
       </c>
       <c r="O91" s="3">
         <v>-41000</v>
       </c>
       <c r="P91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-85000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-53000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-68000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-60000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-52000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-228000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-115000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-132000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-312000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-432000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-40000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-67000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-226000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-68000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-121000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-281000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5550,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="E96" s="3">
         <v>-109000</v>
@@ -5335,22 +5569,22 @@
         <v>-109000</v>
       </c>
       <c r="H96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-94000</v>
       </c>
       <c r="J96" s="3">
         <v>-94000</v>
       </c>
       <c r="K96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-93000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-84000</v>
       </c>
       <c r="N96" s="3">
         <v>-84000</v>
@@ -5359,25 +5593,28 @@
         <v>-84000</v>
       </c>
       <c r="P96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-77000</v>
       </c>
       <c r="S96" s="3">
         <v>-77000</v>
       </c>
       <c r="T96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-67000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,181 +5796,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-256000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-434000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-515000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-456000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>439000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-815000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-110000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-201000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-314000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-388000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-227000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1149000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-185000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-152000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-151000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-234000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-851000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>45000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>17000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>31000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-50000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-20000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-16000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>22000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22000</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-48000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>30000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-38000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E102" s="3">
         <v>247000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-334000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-331000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>671000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-139000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>176000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>67000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-360000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>406000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-90000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>83000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-410000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>551000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-24000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-201000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-657000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,283 +665,295 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1971000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1773000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2273000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1868000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1618000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1655000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2376000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1994000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1860000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1657000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2254000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1862000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1760000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1468000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1957000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1645000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1497000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1281000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1883000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1019000</v>
+      </c>
+      <c r="E9" s="3">
         <v>913000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1127000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>959000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>852000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>868000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1156000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>987000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>929000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>884000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1166000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>961000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>938000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>799000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>987000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>851000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>807000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>711000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>955000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E10" s="3">
         <v>860000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1146000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>909000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>766000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>787000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1220000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1007000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>931000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>773000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1088000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>901000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>822000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>669000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>970000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>794000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>690000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>570000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>928000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>181000</v>
+      </c>
+      <c r="E12" s="3">
         <v>180000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>181000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>175000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>161000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>168000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>182000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>172000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>170000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>162000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>165000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>158000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>162000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>152000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>155000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>141000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>138000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>135000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>142000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1088,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E14" s="3">
         <v>22000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>71000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>55000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>13000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>28000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>26000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>29000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>16000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-9000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>60000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,61 +1181,64 @@
         <v>58000</v>
       </c>
       <c r="E15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F15" s="3">
         <v>57000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>54000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>51000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>53000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>54000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>52000</v>
       </c>
       <c r="K15" s="3">
         <v>52000</v>
       </c>
       <c r="L15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="M15" s="3">
         <v>50000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>48000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>46000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>53000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>41000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>40000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>39000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>37000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>36000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>30000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1619000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1475000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1722000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1572000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1400000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1396000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1788000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1589000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1557000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1436000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1743000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1562000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1487000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1297000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1456000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1298000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1240000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1105000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1484000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E18" s="3">
         <v>298000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>551000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>296000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>218000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>259000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>588000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>405000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>303000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>221000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>511000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>273000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>171000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>501000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>347000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>257000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>176000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>399000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1381,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E20" s="3">
         <v>47000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>29000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>15000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-336000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>31000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>32000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>17000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>23000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E21" s="3">
         <v>455000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>689000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>414000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>334000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>378000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>356000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>507000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>430000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>340000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>620000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>421000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>386000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>276000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>606000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>429000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>346000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>254000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>493000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E22" s="3">
         <v>56000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58000</v>
-      </c>
-      <c r="F22" s="3">
-        <v>60000</v>
       </c>
       <c r="G22" s="3">
         <v>60000</v>
       </c>
       <c r="H22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="I22" s="3">
         <v>55000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>59000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>60000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>62000</v>
       </c>
       <c r="N22" s="3">
         <v>62000</v>
       </c>
       <c r="O22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="P22" s="3">
         <v>63000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>54000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>51000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>55000</v>
       </c>
       <c r="S22" s="3">
         <v>55000</v>
       </c>
       <c r="T22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="U22" s="3">
         <v>54000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>56000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E23" s="3">
         <v>289000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>522000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>251000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>176000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>224000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>193000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>348000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>275000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>185000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>465000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>270000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>227000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>140000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>466000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>286000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>205000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>120000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>362000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E24" s="3">
         <v>44000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>109000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>45000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>40000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>26000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-50000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>80000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>67000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>107000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>46000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>23000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>165000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>73000</v>
       </c>
       <c r="S24" s="3">
         <v>73000</v>
       </c>
       <c r="T24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="U24" s="3">
         <v>42000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>118000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E26" s="3">
         <v>245000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>413000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>206000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>136000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>198000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>243000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>268000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>208000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>152000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>358000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>234000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>181000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>117000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>301000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>213000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>132000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>78000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>244000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E27" s="3">
         <v>244000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>412000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>205000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>135000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>197000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>243000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>267000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>207000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>151000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>357000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>233000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>180000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>117000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>299000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>212000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>131000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>77000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>243000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1959,11 +2019,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1971,23 +2031,23 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>65000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>14000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1995,14 +2055,17 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-47000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-29000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-15000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>336000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-31000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-32000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-17000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E33" s="3">
         <v>244000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>412000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>205000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>135000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>197000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>243000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>267000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>207000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>151000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>422000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>247000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>180000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>117000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-575000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>212000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>131000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>77000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>243000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E35" s="3">
         <v>244000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>412000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>205000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>135000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>197000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>243000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>267000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>207000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>151000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>422000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>247000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>180000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>117000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-575000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>212000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>131000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>77000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>243000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1921000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1320000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1254000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1007000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1341000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1672000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1001000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1138000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>953000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>886000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1246000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>839000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>878000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>795000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1205000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>653000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>742000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>766000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1030000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2601,453 +2690,477 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>50000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>45000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>46000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1900000</v>
+        <v>2000000</v>
       </c>
       <c r="E43" s="3">
+        <v>1936000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2398000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2314000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2141000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2161000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2559000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2355000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2262000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2201000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2473000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2272000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2069000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2136000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1675000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1526000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1321000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1164000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1500000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>559000</v>
+      </c>
+      <c r="E44" s="3">
         <v>530000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>508000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>489000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>449000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>442000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>447000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>460000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>424000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>425000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>356000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>367000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>391000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>441000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>876000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>959000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>920000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>895000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>768000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F45" s="3">
+        <v>167000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>161000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>155000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>206000</v>
+      </c>
+      <c r="J45" s="3">
+        <v>171000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>201000</v>
+      </c>
+      <c r="L45" s="3">
         <v>192000</v>
       </c>
-      <c r="E45" s="3">
-        <v>167000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>161000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>155000</v>
-      </c>
-      <c r="H45" s="3">
-        <v>206000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>171000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>201000</v>
-      </c>
-      <c r="K45" s="3">
-        <v>192000</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>202000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>197000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>186000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>243000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>249000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>194000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>198000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>178000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>203000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>124000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4660000</v>
+      </c>
+      <c r="E46" s="3">
         <v>3942000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4327000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3971000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4086000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4481000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4178000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4154000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3831000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3714000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4272000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3664000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3581000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3621000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3950000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3336000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3211000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3073000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3468000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E47" s="3">
         <v>273000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>263000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>255000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>258000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>253000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>307000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>261000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>328000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>323000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>330000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>372000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>363000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>364000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>358000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>312000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>323000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>314000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>327000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1458000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1476000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1490000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1448000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1427000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1453000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1546000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1524000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1507000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1530000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>895000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>892000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>895000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>900000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>856000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>889000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>859000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>820000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>789000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3342000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3401000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3453000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3475000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3365000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3317000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3394000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3337000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3184000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3276000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2744000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2838000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2868000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1799000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1828000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1617000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1615000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1549000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1380000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1331000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1343000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1212000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1238000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1212000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1217000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1097000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1124000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1150000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1168000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1197000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1174000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1195000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1245000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2253000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2285000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2318000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2330000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11131000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10423000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10876000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10361000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10374000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10716000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10642000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10373000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9974000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9993000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9409000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8963000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8881000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9051000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8208000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8618000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8295000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8140000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8463000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>547000</v>
+      </c>
+      <c r="E57" s="3">
         <v>484000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>612000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>536000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>498000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>531000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>618000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>557000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>544000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>558000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>592000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>456000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>430000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>463000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>593000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>473000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>440000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>433000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>553000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>212000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>517000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>814000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>16000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>617000</v>
-      </c>
-      <c r="K58" s="3">
-        <v>28000</v>
       </c>
       <c r="L58" s="3">
         <v>28000</v>
       </c>
       <c r="M58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="N58" s="3">
         <v>31000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>337000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>347000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>492000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>52000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>47000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>46000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>44000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2628000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2865000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2564000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2465000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2534000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2805000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2482000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2304000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2393000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2473000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2295000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2145000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2141000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2286000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2043000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1924000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1908000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2111000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3184000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3095000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3489000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3312000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3480000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3879000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3439000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3656000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2876000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2979000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3096000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3088000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2922000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3096000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2931000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2563000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2410000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2385000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2668000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5686000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5164000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5163000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>5111000</v>
       </c>
       <c r="H61" s="3">
         <v>5111000</v>
       </c>
       <c r="I61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="J61" s="3">
         <v>5113000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5112000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5315000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5287000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5289000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5095000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5298000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5304000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>4419000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4423000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4421000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4414000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4392000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2642000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2765000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2627000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2598000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2656000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2773000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2689000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2737000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2817000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2300000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2175000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2153000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2190000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2585000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2450000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2440000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2378000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2355000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11489000</v>
+      </c>
+      <c r="E66" s="3">
         <v>10919000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11434000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11117000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11204000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11664000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11342000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11474000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10944000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11101000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10702000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10374000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10388000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10605000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9950000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9448000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9283000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9190000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9427000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1151000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1080000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1127000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1008000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1017000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1074000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1239000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1220000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1051000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>963000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1051000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>788000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>627000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>531000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>467000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>981000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>945000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>970000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1148000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-496000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-558000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-756000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-830000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-948000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-700000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-970000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-830000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-988000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-964000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="E80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>293000</v>
+      </c>
+      <c r="E81" s="3">
         <v>244000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>412000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>205000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>135000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>197000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>243000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>267000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>207000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>151000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>422000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>247000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>180000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>117000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-575000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>212000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>131000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>77000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>243000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,61 +5028,64 @@
         <v>110000</v>
       </c>
       <c r="E83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F83" s="3">
         <v>109000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>103000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>98000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>99000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>104000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>99000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>96000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>95000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>96000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>82000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>88000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>86000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>75000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E89" s="3">
         <v>370000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>704000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>392000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>209000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>308000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>795000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>526000</v>
-      </c>
-      <c r="K89" s="3">
-        <v>251000</v>
       </c>
       <c r="L89" s="3">
         <v>251000</v>
       </c>
       <c r="M89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="N89" s="3">
         <v>812000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>338000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>425000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>761000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>270000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>173000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>142000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>513000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-52000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-66000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-49000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-48000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-59000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-60000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-63000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-69000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-41000</v>
       </c>
       <c r="P91" s="3">
         <v>-41000</v>
       </c>
       <c r="Q91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="R91" s="3">
         <v>-21000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-85000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-53000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-68000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-60000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-52000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-228000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-115000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-132000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-312000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-432000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-40000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-67000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-33000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-226000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-68000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-121000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-281000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5560,7 +5793,7 @@
         <v>-121000</v>
       </c>
       <c r="E96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="F96" s="3">
         <v>-109000</v>
@@ -5572,22 +5805,22 @@
         <v>-109000</v>
       </c>
       <c r="I96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-94000</v>
       </c>
       <c r="K96" s="3">
         <v>-94000</v>
       </c>
       <c r="L96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-93000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-84000</v>
       </c>
       <c r="O96" s="3">
         <v>-84000</v>
@@ -5596,25 +5829,28 @@
         <v>-84000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-77000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-77000</v>
       </c>
       <c r="T96" s="3">
         <v>-77000</v>
       </c>
       <c r="U96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-67000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>286000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-256000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-434000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-515000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-456000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>439000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-815000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-110000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-201000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-314000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-388000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-227000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1149000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-185000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-152000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-151000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-234000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-851000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>45000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>17000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>31000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-50000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-20000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-16000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>22000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22000</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-48000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>30000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-38000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>601000</v>
+      </c>
+      <c r="E102" s="3">
         <v>66000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>247000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-334000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-331000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>671000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-139000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>176000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>67000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-360000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>406000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-90000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>83000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-410000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>551000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-88000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-24000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-201000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-657000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,307 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
         <v>44380</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2107000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1971000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1773000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2273000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1868000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1618000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1655000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2376000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1994000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1860000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1657000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2254000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1862000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1760000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1468000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1957000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1645000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1497000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1281000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1883000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1019000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>913000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1127000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>959000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>852000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>868000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1156000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>987000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>929000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>884000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1166000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>961000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>938000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>799000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>987000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>851000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>807000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>711000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>955000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="E10" s="3">
         <v>952000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>860000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1146000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>909000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>766000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>787000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1220000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1007000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>931000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>773000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1088000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>901000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>822000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>669000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>970000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>794000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>690000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>570000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>928000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +989,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E12" s="3">
         <v>181000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>180000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>181000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>175000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>161000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>168000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>182000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>172000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>170000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>162000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>165000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>158000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>162000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>152000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>155000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>141000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>138000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>135000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>142000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,138 +1123,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E14" s="3">
         <v>27000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>71000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>39000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>55000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>13000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>28000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>26000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>29000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>16000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-9000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>60000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>58000</v>
+        <v>56000</v>
       </c>
       <c r="E15" s="3">
         <v>58000</v>
       </c>
       <c r="F15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="G15" s="3">
         <v>57000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>54000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>51000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>53000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>54000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>52000</v>
       </c>
       <c r="L15" s="3">
         <v>52000</v>
       </c>
       <c r="M15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="N15" s="3">
         <v>50000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>48000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>46000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>53000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>41000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>40000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>39000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>37000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>36000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>30000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1284,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1656000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1619000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1475000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1722000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1572000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1400000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1396000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1788000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1589000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1557000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1436000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1743000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1562000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1487000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1297000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1456000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1298000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1240000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1105000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1484000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>451000</v>
+      </c>
+      <c r="E18" s="3">
         <v>352000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>298000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>551000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>296000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>218000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>259000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>588000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>405000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>303000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>221000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>511000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>273000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>171000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>501000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>347000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>257000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>176000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>399000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,333 +1446,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E20" s="3">
         <v>34000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>47000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>29000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>18000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-336000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>31000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>24000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>32000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>17000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>23000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>568000</v>
+      </c>
+      <c r="E21" s="3">
         <v>496000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>455000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>689000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>414000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>334000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>378000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>356000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>507000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>430000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>340000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>620000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>421000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>386000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>276000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>606000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>429000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>346000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>254000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>493000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E22" s="3">
         <v>46000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>56000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>60000</v>
       </c>
       <c r="H22" s="3">
         <v>60000</v>
       </c>
       <c r="I22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="J22" s="3">
         <v>55000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>59000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>60000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>62000</v>
       </c>
       <c r="O22" s="3">
         <v>62000</v>
       </c>
       <c r="P22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>63000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>54000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>51000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>55000</v>
       </c>
       <c r="T22" s="3">
         <v>55000</v>
       </c>
       <c r="U22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="V22" s="3">
         <v>54000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>56000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E23" s="3">
         <v>340000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>289000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>522000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>251000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>176000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>224000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>193000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>348000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>275000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>185000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>465000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>270000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>227000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>140000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>466000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>286000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>205000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>120000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>362000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E24" s="3">
         <v>46000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>44000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>109000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>40000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>26000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-50000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>80000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>67000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>33000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>107000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>46000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>23000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>165000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>73000</v>
       </c>
       <c r="T24" s="3">
         <v>73000</v>
       </c>
       <c r="U24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="V24" s="3">
         <v>42000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>118000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,138 +1852,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>308000</v>
+      </c>
+      <c r="E26" s="3">
         <v>294000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>245000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>413000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>206000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>136000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>198000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>243000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>268000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>208000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>152000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>358000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>234000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>181000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>117000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>301000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>213000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>132000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>78000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>244000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E27" s="3">
         <v>293000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>244000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>412000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>205000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>135000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>197000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>243000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>267000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>207000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>151000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>357000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>233000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>180000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>117000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>299000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>212000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>131000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>77000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>243000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2022,11 +2082,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2034,23 +2094,23 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>65000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>14000</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2058,14 +2118,17 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2260,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-34000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-47000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-29000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-18000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>336000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-31000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-24000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-32000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-23000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E33" s="3">
         <v>293000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>244000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>412000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>205000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>135000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>197000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>243000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>267000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>207000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>151000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>422000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>247000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>180000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>117000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-575000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>212000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>131000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>77000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>243000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2464,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E35" s="3">
         <v>293000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>244000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>412000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>205000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>135000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>197000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>243000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>267000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>207000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>151000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>422000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>247000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>180000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>117000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-575000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>212000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>131000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>77000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>243000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
         <v>44380</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2659,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1653000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1921000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1320000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1254000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1007000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1341000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1672000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1001000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1138000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>953000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>886000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1246000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>839000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>878000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>795000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1205000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>653000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>742000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>766000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1030000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2693,474 +2782,498 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>50000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>45000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>46000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2296000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1936000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2398000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2314000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2141000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2161000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2559000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2355000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2262000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2201000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2473000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2272000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2069000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2136000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1675000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1526000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1321000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1164000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1500000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>604000</v>
+      </c>
+      <c r="E44" s="3">
         <v>559000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>530000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>508000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>489000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>449000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>442000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>447000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>460000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>424000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>425000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>356000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>367000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>391000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>441000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>876000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>959000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>920000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>895000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>768000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E45" s="3">
         <v>180000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>156000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>167000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>161000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>155000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>206000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>171000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>201000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>192000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>202000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>197000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>186000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>243000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>249000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>194000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>198000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>178000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>203000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>124000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4735000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4660000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3942000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4327000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3971000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4086000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4481000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4178000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4154000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3831000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3714000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4272000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3664000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3581000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3621000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3950000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3336000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3211000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3073000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3468000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>327000</v>
+      </c>
+      <c r="E47" s="3">
         <v>291000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>273000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>263000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>255000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>258000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>253000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>307000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>261000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>328000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>323000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>330000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>372000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>363000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>364000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>358000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>312000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>323000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>314000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>327000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1426000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1458000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1476000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1490000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1448000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1427000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1453000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1546000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1524000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1507000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1530000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>895000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>892000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>895000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>900000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>856000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>889000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>859000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>820000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>789000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3583000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3342000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3401000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3453000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3475000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3365000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3317000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3394000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3337000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3184000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3276000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2744000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2838000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2868000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2971000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1799000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1828000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1617000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1615000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1549000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3405,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1380000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1331000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1343000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1212000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1238000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1212000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1217000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1097000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1124000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1150000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1168000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1197000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1174000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1195000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1245000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2253000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2285000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2318000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2330000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11422000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11131000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10423000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10876000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10361000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10374000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10716000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10642000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10373000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9974000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9993000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9409000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8963000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8881000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9051000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8208000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8618000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8295000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8140000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8463000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3663,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E57" s="3">
         <v>547000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>484000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>612000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>536000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>498000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>531000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>618000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>557000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>544000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>558000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>592000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>456000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>430000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>463000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>593000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>473000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>440000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>433000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>553000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E58" s="3">
         <v>9000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>11000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>12000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>212000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>517000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>814000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>16000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>617000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>28000</v>
       </c>
       <c r="M58" s="3">
         <v>28000</v>
       </c>
       <c r="N58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="O58" s="3">
         <v>31000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>337000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>347000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>492000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>52000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>47000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>46000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>44000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2803000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2628000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2600000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2865000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2564000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2465000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2534000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2805000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2482000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2304000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2393000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2473000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2295000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2145000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2141000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2286000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2043000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1924000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1908000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2111000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3429000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3184000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3095000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3489000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3312000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3480000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3879000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3439000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3656000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2876000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2979000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3096000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3088000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2922000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3096000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2931000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2563000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2410000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2385000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2668000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5687000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5686000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5164000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5163000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>5111000</v>
       </c>
       <c r="I61" s="3">
         <v>5111000</v>
       </c>
       <c r="J61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="K61" s="3">
         <v>5113000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5112000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5315000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5287000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5289000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5095000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5298000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5304000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>4419000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4423000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4421000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4414000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4392000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2554000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2605000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2642000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2765000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2627000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2598000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2656000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2773000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2689000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2737000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2817000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2300000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2175000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2153000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2190000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2585000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2450000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2440000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2378000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2355000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11685000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11489000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10919000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11434000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11117000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11204000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11664000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11342000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11474000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10944000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11101000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10702000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10374000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10388000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10605000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9950000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9448000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9283000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9190000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9427000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4571,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4639,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1201000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1151000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1080000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1127000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1008000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1017000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1074000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1239000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1220000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1051000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>963000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1051000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>788000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>627000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>531000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>467000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>981000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>945000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>970000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1148000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-263000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-358000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-496000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-558000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-756000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-830000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-948000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-700000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-970000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-830000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-988000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-964000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5047,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
         <v>44380</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>307000</v>
+      </c>
+      <c r="E81" s="3">
         <v>293000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>244000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>412000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>205000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>135000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>197000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>243000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>267000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>207000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>151000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>422000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>247000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>180000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>117000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-575000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>212000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>131000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>77000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>243000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5216,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>110000</v>
+        <v>105000</v>
       </c>
       <c r="E83" s="3">
         <v>110000</v>
       </c>
       <c r="F83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="G83" s="3">
         <v>109000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>103000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>98000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>99000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>104000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>99000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>96000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>95000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>96000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>82000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>88000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>80000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>75000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5622,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>376000</v>
+      </c>
+      <c r="E89" s="3">
         <v>388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>370000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>704000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>392000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>209000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>308000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>795000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>526000</v>
-      </c>
-      <c r="L89" s="3">
-        <v>251000</v>
       </c>
       <c r="M89" s="3">
         <v>251000</v>
       </c>
       <c r="N89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="O89" s="3">
         <v>812000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>338000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>425000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>761000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>270000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>173000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>142000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>513000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5718,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-62000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-52000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-66000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-48000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-59000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-60000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-63000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-69000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-41000</v>
       </c>
       <c r="Q91" s="3">
         <v>-41000</v>
       </c>
       <c r="R91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="S91" s="3">
         <v>-21000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-85000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-53000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-68000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-60000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5920,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-411000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-52000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-68000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-228000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-115000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-132000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-312000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-432000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-40000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-67000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-33000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-226000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-68000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-121000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-281000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,19 +6016,20 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="E96" s="3">
         <v>-121000</v>
       </c>
       <c r="F96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="G96" s="3">
         <v>-109000</v>
@@ -5808,22 +6041,22 @@
         <v>-109000</v>
       </c>
       <c r="J96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="K96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-94000</v>
       </c>
       <c r="L96" s="3">
         <v>-94000</v>
       </c>
       <c r="M96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-93000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-84000</v>
       </c>
       <c r="P96" s="3">
         <v>-84000</v>
@@ -5832,25 +6065,28 @@
         <v>-84000</v>
       </c>
       <c r="R96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-77000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-77000</v>
       </c>
       <c r="U96" s="3">
         <v>-77000</v>
       </c>
       <c r="V96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-67000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6286,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-209000</v>
+      </c>
+      <c r="E100" s="3">
         <v>286000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-256000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-434000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-515000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-456000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>439000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-815000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-110000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-201000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-314000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-388000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1149000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-185000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-152000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-151000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-234000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-851000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>45000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>17000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>31000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-50000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>13000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-20000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-16000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>22000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22000</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>30000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-38000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-268000</v>
+      </c>
+      <c r="E102" s="3">
         <v>601000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>66000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>247000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-334000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-331000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>671000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-139000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>176000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>67000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-360000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>406000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-90000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>83000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-410000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>551000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-88000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-24000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-201000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-657000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,307 +665,320 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2320000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2107000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1971000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1773000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2273000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1868000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1618000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1655000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2376000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1994000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1860000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1657000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2254000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1862000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1760000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1468000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1957000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1645000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1497000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1281000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1883000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1137000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1062000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1019000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>913000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1127000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>959000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>852000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>868000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1156000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>987000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>929000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>884000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1166000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>961000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>938000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>799000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>987000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>851000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>807000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>711000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>955000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1183000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1045000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>952000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>860000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1146000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>909000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>766000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>787000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1220000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1007000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>931000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>773000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1088000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>901000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>822000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>669000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>970000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>794000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>690000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>570000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>928000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E12" s="3">
         <v>183000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>181000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>180000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>181000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>175000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>161000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>168000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>182000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>172000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>170000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>162000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>165000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>158000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>162000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>152000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>155000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>141000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>138000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>135000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>142000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,144 +1143,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E14" s="3">
         <v>2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>27000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>22000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>71000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>39000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>55000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>13000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>28000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>26000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>29000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>16000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-9000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>60000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E15" s="3">
         <v>56000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>58000</v>
       </c>
       <c r="F15" s="3">
         <v>58000</v>
       </c>
       <c r="G15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="H15" s="3">
         <v>57000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>54000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>51000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>53000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>52000</v>
       </c>
       <c r="M15" s="3">
         <v>52000</v>
       </c>
       <c r="N15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="O15" s="3">
         <v>50000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>48000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>46000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>53000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>41000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>40000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>39000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>37000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>36000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>30000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1771000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1656000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1619000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1475000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1722000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1572000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1396000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1788000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1589000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1557000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1436000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1743000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1562000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1487000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1297000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1456000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1298000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1240000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1105000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1484000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E18" s="3">
         <v>451000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>352000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>298000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>551000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>296000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>218000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>259000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>588000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>405000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>303000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>221000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>511000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>273000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>171000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>501000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>347000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>257000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>176000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>399000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1447,348 +1480,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E20" s="3">
         <v>12000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>47000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>29000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>15000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>18000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-336000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>31000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>32000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>17000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>23000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E21" s="3">
         <v>568000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>496000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>455000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>689000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>414000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>334000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>378000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>356000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>507000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>430000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>340000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>620000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>421000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>386000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>276000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>606000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>429000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>346000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>254000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>493000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>46000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>56000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
-      </c>
-      <c r="H22" s="3">
-        <v>60000</v>
       </c>
       <c r="I22" s="3">
         <v>60000</v>
       </c>
       <c r="J22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="K22" s="3">
         <v>55000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>59000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>60000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>62000</v>
       </c>
       <c r="P22" s="3">
         <v>62000</v>
       </c>
       <c r="Q22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="R22" s="3">
         <v>63000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>54000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>51000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>55000</v>
       </c>
       <c r="U22" s="3">
         <v>55000</v>
       </c>
       <c r="V22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="W22" s="3">
         <v>54000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>56000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E23" s="3">
         <v>405000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>340000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>289000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>522000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>251000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>176000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>224000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>193000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>348000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>275000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>185000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>465000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>270000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>227000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>140000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>466000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>286000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>205000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>120000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>362000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E24" s="3">
         <v>97000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>46000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>44000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>109000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>45000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>40000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>26000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-50000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>80000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>67000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>33000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>107000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>46000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>23000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>165000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>73000</v>
       </c>
       <c r="U24" s="3">
         <v>73000</v>
       </c>
       <c r="V24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="W24" s="3">
         <v>42000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>118000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1855,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>402000</v>
+      </c>
+      <c r="E26" s="3">
         <v>308000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>294000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>245000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>413000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>206000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>136000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>198000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>243000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>268000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>208000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>152000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>358000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>234000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>181000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>117000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>301000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>213000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>132000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>78000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>244000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E27" s="3">
         <v>307000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>293000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>244000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>412000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>205000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>135000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>197000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>243000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>267000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>207000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>151000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>357000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>233000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>180000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>117000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>299000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>212000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>131000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>77000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>243000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2085,11 +2146,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2097,23 +2158,23 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>65000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>14000</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2121,14 +2182,17 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-12000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-47000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-29000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-15000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-18000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>336000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-31000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-17000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-23000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E33" s="3">
         <v>307000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>293000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>244000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>412000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>205000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>135000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>197000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>243000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>267000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>207000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>151000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>422000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>247000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>180000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>117000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-575000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>212000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>131000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>77000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>243000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E35" s="3">
         <v>307000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>293000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>244000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>412000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>205000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>135000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>197000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>243000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>267000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>207000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>151000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>422000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>247000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>180000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>117000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-575000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>212000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>131000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>77000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>243000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1874000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1653000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1921000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1320000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1254000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1007000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1341000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1672000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1001000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1138000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>953000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>886000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1246000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>839000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>878000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>795000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1205000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>653000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>742000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>766000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1030000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2785,495 +2875,519 @@
         <v>0</v>
       </c>
       <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>50000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>45000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>46000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2562000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2296000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1936000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2398000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2314000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2141000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2161000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2559000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2355000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2262000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2201000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2473000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2272000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2069000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2136000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1675000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1526000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1321000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1164000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1500000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>788000</v>
+      </c>
+      <c r="E44" s="3">
         <v>604000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>559000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>530000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>508000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>489000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>449000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>442000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>447000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>460000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>424000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>425000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>356000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>367000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>391000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>441000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>876000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>959000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>920000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>895000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>768000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E45" s="3">
         <v>182000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>180000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>156000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>167000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>161000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>155000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>206000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>171000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>201000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>192000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>202000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>197000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>186000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>243000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>249000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>194000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>198000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>178000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>203000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>124000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5412000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4735000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4660000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3942000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4327000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3971000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4086000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4481000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4178000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4154000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3831000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3714000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4272000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3664000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3581000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3621000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3950000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3336000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3211000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3073000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3468000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E47" s="3">
         <v>327000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>291000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>273000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>263000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>255000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>258000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>253000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>307000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>261000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>328000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>323000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>330000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>372000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>363000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>364000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>358000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>312000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>323000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>314000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>327000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1424000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1426000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1458000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1476000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1490000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1448000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1427000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1453000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1546000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1524000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1507000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1530000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>895000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>892000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>895000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>900000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>856000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>889000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>859000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>820000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>789000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3670000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3583000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3342000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3401000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3453000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3475000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3365000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3317000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3394000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3337000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3184000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3276000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2744000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2838000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2868000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2971000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1799000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1828000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1617000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1615000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1549000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,76 +3525,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1351000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1380000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1331000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1343000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1212000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1238000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1212000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1217000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1097000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1124000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1150000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1168000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1197000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1174000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1195000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1245000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2253000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2285000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2318000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2330000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12189000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11422000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11131000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10423000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10876000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10361000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10374000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10716000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10642000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10373000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9974000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9993000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9409000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8963000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8881000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9051000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8208000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8618000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8295000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8140000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8463000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,416 +3794,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>851000</v>
+      </c>
+      <c r="E57" s="3">
         <v>620000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>547000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>484000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>612000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>536000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>498000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>531000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>618000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>557000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>544000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>558000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>592000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>456000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>430000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>463000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>593000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>473000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>440000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>433000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>553000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E58" s="3">
         <v>6000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>9000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>12000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>212000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>517000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>814000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>16000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>617000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>28000</v>
       </c>
       <c r="N58" s="3">
         <v>28000</v>
       </c>
       <c r="O58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="P58" s="3">
         <v>31000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>337000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>347000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>492000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>52000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>47000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>46000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>44000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3207000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2803000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2628000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2865000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2564000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2465000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2534000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2805000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2482000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2304000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2393000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2473000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2295000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2145000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2141000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2286000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2043000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1924000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1908000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2111000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4063000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3429000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3184000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3095000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3489000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3312000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3480000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3879000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3439000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3656000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2876000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2979000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3096000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3088000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2922000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3096000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2931000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2563000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2410000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2385000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2668000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5688000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5687000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5686000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5164000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5163000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>5111000</v>
       </c>
       <c r="J61" s="3">
         <v>5111000</v>
       </c>
       <c r="K61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="L61" s="3">
         <v>5113000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5112000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5315000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5287000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5289000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5095000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5298000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5304000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>4419000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4423000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4421000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4414000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4392000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2461000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2554000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2605000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2642000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2765000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2627000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2598000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2656000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2773000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2689000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2737000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2817000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2300000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2175000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2153000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2190000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2585000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2450000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2440000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2378000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2355000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12229000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11685000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11489000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10919000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11434000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11117000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11204000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11664000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11342000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11474000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10944000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11101000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10702000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10374000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10388000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10605000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9950000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9448000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9283000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9190000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9427000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4574,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1350000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1201000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1151000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1080000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1127000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1008000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1017000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1074000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1239000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1220000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1051000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>963000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1051000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>788000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>627000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>531000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>467000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>981000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>945000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>970000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1148000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-263000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-358000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-496000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-558000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-756000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-830000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-948000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-700000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-970000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-830000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-988000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-964000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>401000</v>
+      </c>
+      <c r="E81" s="3">
         <v>307000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>293000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>244000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>412000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>205000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>135000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>197000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>243000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>267000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>207000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>151000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>422000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>247000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>180000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>117000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-575000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>212000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>131000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>77000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>243000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,76 +5415,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E83" s="3">
         <v>105000</v>
-      </c>
-      <c r="E83" s="3">
-        <v>110000</v>
       </c>
       <c r="F83" s="3">
         <v>110000</v>
       </c>
       <c r="G83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="H83" s="3">
         <v>109000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>103000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>98000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>99000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>104000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>99000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>96000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>95000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>93000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>89000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>96000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>82000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>88000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>86000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>80000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>75000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E89" s="3">
         <v>376000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>388000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>370000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>704000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>392000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>209000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>308000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>795000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>526000</v>
-      </c>
-      <c r="M89" s="3">
-        <v>251000</v>
       </c>
       <c r="N89" s="3">
         <v>251000</v>
       </c>
       <c r="O89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="P89" s="3">
         <v>812000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>338000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>425000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>761000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>270000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>173000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>142000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>513000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,76 +5939,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-61000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-62000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-52000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-66000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-48000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-59000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-60000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-63000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-69000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-41000</v>
       </c>
       <c r="R91" s="3">
         <v>-41000</v>
       </c>
       <c r="S91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="T91" s="3">
         <v>-21000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-85000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-53000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-68000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-60000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,76 +6150,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-411000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-52000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-68000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-228000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-115000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-132000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-312000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-58000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-432000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-67000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-33000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-226000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-68000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-121000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-281000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6026,13 +6260,13 @@
         <v>-120000</v>
       </c>
       <c r="E96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="F96" s="3">
         <v>-121000</v>
       </c>
       <c r="G96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="H96" s="3">
         <v>-109000</v>
@@ -6044,22 +6278,22 @@
         <v>-109000</v>
       </c>
       <c r="K96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="L96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-94000</v>
       </c>
       <c r="M96" s="3">
         <v>-94000</v>
       </c>
       <c r="N96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-93000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-84000</v>
       </c>
       <c r="Q96" s="3">
         <v>-84000</v>
@@ -6068,25 +6302,28 @@
         <v>-84000</v>
       </c>
       <c r="S96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-77000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-77000</v>
       </c>
       <c r="V96" s="3">
         <v>-77000</v>
       </c>
       <c r="W96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-67000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,208 +6532,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-250000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-209000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>286000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-256000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-434000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-515000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-456000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>439000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-815000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-110000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-201000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-314000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-388000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-227000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1149000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-185000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-152000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-151000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-234000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-851000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-24000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-11000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>45000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>17000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>31000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-50000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-20000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-16000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>22000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-22000</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-48000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>30000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>8000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>20000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>22000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-38000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-268000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>601000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>66000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>247000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-334000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-331000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>671000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-139000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>176000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>67000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-360000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>406000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>83000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-410000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>551000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-88000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-24000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-201000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-657000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>MSI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44100</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1892000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2320000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2107000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1971000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1773000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2273000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1868000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1618000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1655000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2376000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1994000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1860000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1657000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2254000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1862000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1760000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1468000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1957000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1645000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1497000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1281000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1883000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1035000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1137000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1062000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1019000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>913000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1127000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>959000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>852000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>868000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1156000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>987000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>929000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>884000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>961000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>938000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>799000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>987000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>851000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>807000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>711000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>955000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>857000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1183000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1045000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>952000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>860000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1146000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>909000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>766000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>787000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1220000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1007000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>931000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>773000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1088000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>901000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>822000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>669000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>970000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>794000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>690000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>570000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>928000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1017,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>188000</v>
+      </c>
+      <c r="E12" s="3">
         <v>189000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>183000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>181000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>180000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>181000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>175000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>161000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>168000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>182000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>172000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>170000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>162000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>165000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>158000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>162000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>152000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>155000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>141000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>138000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>135000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>142000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,150 +1163,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E14" s="3">
         <v>14000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>27000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>71000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>39000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>55000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>28000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>17000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>26000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>29000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>16000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-9000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>60000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E15" s="3">
         <v>64000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>56000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>58000</v>
       </c>
       <c r="G15" s="3">
         <v>58000</v>
       </c>
       <c r="H15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="I15" s="3">
         <v>57000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>54000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>51000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>53000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>54000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>52000</v>
       </c>
       <c r="N15" s="3">
         <v>52000</v>
       </c>
       <c r="O15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="P15" s="3">
         <v>50000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>48000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>46000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>53000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>41000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>40000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>39000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>37000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>36000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>30000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1654000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1771000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1656000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1619000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1475000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1722000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1572000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1396000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1788000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1589000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1557000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1436000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1743000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1562000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1487000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1297000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1456000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1298000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1240000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1105000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1484000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E18" s="3">
         <v>549000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>451000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>352000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>298000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>551000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>296000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>218000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>259000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>588000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>405000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>303000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>221000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>511000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>273000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>171000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>501000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>347000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>257000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>176000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>399000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,363 +1514,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E20" s="3">
         <v>24000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>47000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>29000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>15000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-336000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>31000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>32000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>17000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>23000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E21" s="3">
         <v>686000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>568000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>496000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>455000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>689000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>414000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>334000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>378000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>356000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>507000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>430000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>340000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>620000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>421000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>386000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>276000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>606000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>429000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>346000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>254000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>493000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E22" s="3">
         <v>55000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>46000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>56000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58000</v>
-      </c>
-      <c r="I22" s="3">
-        <v>60000</v>
       </c>
       <c r="J22" s="3">
         <v>60000</v>
       </c>
       <c r="K22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="L22" s="3">
         <v>55000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>59000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>60000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
-      </c>
-      <c r="P22" s="3">
-        <v>62000</v>
       </c>
       <c r="Q22" s="3">
         <v>62000</v>
       </c>
       <c r="R22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="S22" s="3">
         <v>63000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>54000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>51000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>55000</v>
       </c>
       <c r="V22" s="3">
         <v>55000</v>
       </c>
       <c r="W22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="X22" s="3">
         <v>54000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>56000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E23" s="3">
         <v>518000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>405000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>340000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>289000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>522000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>251000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>176000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>224000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>193000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>348000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>275000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>185000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>465000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>270000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>227000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>140000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>466000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>286000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>205000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>120000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>362000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-49000</v>
+      </c>
+      <c r="E24" s="3">
         <v>116000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>97000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>46000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>44000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>109000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>45000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>40000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>26000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-50000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>80000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>67000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>33000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>107000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>36000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>46000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>23000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>165000</v>
-      </c>
-      <c r="U24" s="3">
-        <v>73000</v>
       </c>
       <c r="V24" s="3">
         <v>73000</v>
       </c>
       <c r="W24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="X24" s="3">
         <v>42000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>118000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E26" s="3">
         <v>402000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>308000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>294000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>245000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>413000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>206000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>136000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>198000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>243000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>268000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>208000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>152000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>358000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>234000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>181000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>117000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>301000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>213000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>132000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>78000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>244000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E27" s="3">
         <v>401000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>307000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>293000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>244000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>412000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>205000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>135000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>197000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>243000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>267000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>207000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>151000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>357000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>233000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>180000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>117000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>299000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>212000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>131000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>77000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>243000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,40 +2178,43 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2161,23 +2222,23 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>65000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>14000</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2185,14 +2246,17 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-24000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-47000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-29000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-15000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>336000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-31000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-32000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-17000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-23000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E33" s="3">
         <v>401000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>307000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>293000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>244000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>412000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>205000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>135000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>197000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>243000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>267000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>207000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>151000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>422000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>247000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>180000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>117000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-575000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>212000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>131000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>77000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>243000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E35" s="3">
         <v>401000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>307000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>293000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>244000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>412000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>205000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>135000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>197000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>243000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>267000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>207000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>151000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>422000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>247000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>180000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>117000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-575000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>212000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>131000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>77000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>243000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44100</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>878000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1874000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1653000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1921000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1320000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1254000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1007000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1341000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1672000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1001000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1138000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>953000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>886000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1246000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>839000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>878000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>795000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1205000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>653000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>742000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>766000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1030000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2878,516 +2968,540 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>50000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>45000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>46000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2231000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2562000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2296000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1936000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2398000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2314000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2141000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2161000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2559000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2355000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2262000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2201000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2473000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2272000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2069000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2136000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1675000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1526000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1321000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1164000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1500000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>952000</v>
+      </c>
+      <c r="E44" s="3">
         <v>788000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>604000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>559000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>530000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>508000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>489000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>449000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>442000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>447000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>460000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>424000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>425000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>356000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>367000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>391000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>441000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>876000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>959000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>920000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>895000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>768000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E45" s="3">
         <v>188000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>182000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>180000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>156000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>167000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>161000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>155000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>206000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>171000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>201000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>192000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>202000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>197000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>186000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>243000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>249000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>194000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>198000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>178000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>203000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>124000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4280000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5412000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4735000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4660000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3942000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4327000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3971000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4086000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4481000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4178000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4154000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3831000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3714000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4272000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3664000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3581000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3621000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3950000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3336000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3211000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3073000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3468000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E47" s="3">
         <v>333000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>327000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>291000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>273000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>263000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>255000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>258000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>253000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>307000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>261000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>328000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>323000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>330000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>372000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>363000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>364000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>358000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>312000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>323000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>314000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>327000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1424000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1426000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1458000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1476000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1490000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1448000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1427000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1453000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1546000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1524000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1507000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1530000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>895000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>892000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>895000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>900000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>856000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>889000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>859000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>820000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>789000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4168000</v>
+      </c>
+      <c r="E49" s="3">
         <v>3670000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3583000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3342000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3401000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3453000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3475000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3365000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3317000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3394000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3337000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3184000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3276000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2744000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2838000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2868000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2971000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1799000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1828000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1617000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1615000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1549000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1433000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1350000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1351000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1380000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1331000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1343000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1212000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1238000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1212000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1217000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1097000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1124000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1150000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1168000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1197000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1174000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1195000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1245000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2253000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2285000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2318000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2330000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11649000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12189000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11422000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11131000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10423000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10876000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10361000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10374000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10716000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10642000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10373000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9974000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9993000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9409000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8963000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8881000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9051000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8208000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8618000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8295000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8140000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8463000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,434 +3925,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>827000</v>
+      </c>
+      <c r="E57" s="3">
         <v>851000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>620000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>547000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>484000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>612000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>536000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>498000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>531000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>618000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>557000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>544000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>558000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>592000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>456000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>430000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>463000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>593000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>473000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>440000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>433000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>553000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E58" s="3">
         <v>5000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>6000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>9000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>12000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>212000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>517000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>814000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>16000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>617000</v>
-      </c>
-      <c r="N58" s="3">
-        <v>28000</v>
       </c>
       <c r="O58" s="3">
         <v>28000</v>
       </c>
       <c r="P58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="Q58" s="3">
         <v>31000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>337000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>347000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>492000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>52000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>47000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>46000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>44000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3055000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3207000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2803000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2628000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2865000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2564000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2465000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2534000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2805000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2482000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2304000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2393000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2473000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2295000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2145000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2141000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2286000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2043000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1924000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1908000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2111000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3886000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4063000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3429000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3184000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3095000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3489000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3312000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3480000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3879000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3439000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3656000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2876000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2979000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3096000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3088000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2922000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3096000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2931000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2563000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2410000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2385000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2668000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5689000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5688000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5687000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5686000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5164000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5163000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>5111000</v>
       </c>
       <c r="K61" s="3">
         <v>5111000</v>
       </c>
       <c r="L61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="M61" s="3">
         <v>5113000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5112000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5315000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5287000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5289000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5095000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5298000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5304000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>4419000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4423000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4421000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4414000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4392000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2372000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2461000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2554000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2605000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2642000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2765000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2627000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2598000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2656000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2773000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2689000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2737000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2817000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2300000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2175000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2153000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2190000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2585000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2450000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2440000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2378000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2355000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11965000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12229000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11685000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11489000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10919000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11434000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11117000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11204000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11664000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11342000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11474000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10944000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11101000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10702000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10374000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10388000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10605000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9950000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9448000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9283000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9190000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9427000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1002000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1350000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1201000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1151000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1080000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1127000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1008000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1017000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1074000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1239000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1220000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1051000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>963000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1051000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>788000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>627000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>531000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>467000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>981000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>945000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>970000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1148000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-40000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-263000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-358000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-496000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-558000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-756000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-830000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-948000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-700000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-970000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-830000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-988000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-964000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44100</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E81" s="3">
         <v>401000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>307000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>293000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>244000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>412000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>205000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>135000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>197000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>243000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>267000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>207000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>151000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>422000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>247000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>180000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>117000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-575000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>212000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>131000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>77000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>243000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E83" s="3">
         <v>113000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>105000</v>
-      </c>
-      <c r="F83" s="3">
-        <v>110000</v>
       </c>
       <c r="G83" s="3">
         <v>110000</v>
       </c>
       <c r="H83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I83" s="3">
         <v>109000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>103000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>98000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>99000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>104000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>99000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>96000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>95000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>93000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>89000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>96000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>82000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>89000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>88000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>86000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>80000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>75000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>152000</v>
+      </c>
+      <c r="E89" s="3">
         <v>703000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>376000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>370000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>704000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>392000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>209000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>308000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>795000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>526000</v>
-      </c>
-      <c r="N89" s="3">
-        <v>251000</v>
       </c>
       <c r="O89" s="3">
         <v>251000</v>
       </c>
       <c r="P89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="Q89" s="3">
         <v>812000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>338000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>425000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>761000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>270000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>173000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>142000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>513000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-68000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-61000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-62000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-52000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-66000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-54000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-48000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-59000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-60000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-63000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-66000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-69000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-41000</v>
       </c>
       <c r="S91" s="3">
         <v>-41000</v>
       </c>
       <c r="T91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="U91" s="3">
         <v>-21000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-85000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-53000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-68000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-557000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-217000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-411000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-52000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-228000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-115000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-132000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-312000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-58000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-432000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-40000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-67000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-33000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-226000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-68000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-121000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-281000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,25 +6484,26 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-120000</v>
+        <v>-134000</v>
       </c>
       <c r="E96" s="3">
         <v>-120000</v>
       </c>
       <c r="F96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="G96" s="3">
         <v>-121000</v>
       </c>
       <c r="H96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="I96" s="3">
         <v>-109000</v>
@@ -6281,22 +6515,22 @@
         <v>-109000</v>
       </c>
       <c r="L96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-94000</v>
       </c>
       <c r="N96" s="3">
         <v>-94000</v>
       </c>
       <c r="O96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-93000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-84000</v>
       </c>
       <c r="R96" s="3">
         <v>-84000</v>
@@ -6305,25 +6539,28 @@
         <v>-84000</v>
       </c>
       <c r="T96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-77000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-77000</v>
       </c>
       <c r="W96" s="3">
         <v>-77000</v>
       </c>
       <c r="X96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-250000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-209000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>286000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-256000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-434000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-515000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-456000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>439000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-815000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-110000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-201000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-388000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-227000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1149000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-185000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-152000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-151000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-234000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-851000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-24000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>45000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>17000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>31000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-50000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-20000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-16000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>22000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-48000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>30000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>20000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>22000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>12000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-38000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-996000</v>
+      </c>
+      <c r="E102" s="3">
         <v>221000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-268000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>601000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>66000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>247000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-334000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-331000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>671000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-139000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>176000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>67000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-360000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>406000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-90000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>83000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-410000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>551000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-24000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-201000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-657000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,345 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44100</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2140000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1892000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2320000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2107000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1971000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1773000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2273000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1868000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1618000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1655000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2376000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1994000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1860000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1657000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2254000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1862000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1760000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1468000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1957000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1645000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1497000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1281000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1883000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1150000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1035000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1137000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1062000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1019000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>913000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1127000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>959000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>852000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>868000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1156000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>987000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>929000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>884000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1166000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>961000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>938000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>799000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>987000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>851000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>807000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>711000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>955000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>990000</v>
+      </c>
+      <c r="E10" s="3">
         <v>857000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1183000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1045000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>952000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>860000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1146000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>909000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>766000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>787000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1220000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1007000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>931000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>773000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1088000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>901000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>822000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>669000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>970000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>794000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>690000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>570000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>928000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1030,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E12" s="3">
         <v>188000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>189000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>183000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>181000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>180000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>181000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>175000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>161000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>168000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>182000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>172000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>170000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>162000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>165000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>158000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>162000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>152000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>155000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>141000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>138000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>135000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>142000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,156 +1182,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E14" s="3">
         <v>28000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>14000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>27000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>71000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>39000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>27000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>55000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>28000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>26000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>29000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>16000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>60000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E15" s="3">
         <v>66000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>64000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>56000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>58000</v>
       </c>
       <c r="H15" s="3">
         <v>58000</v>
       </c>
       <c r="I15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="J15" s="3">
         <v>57000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>54000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>51000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>53000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>54000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>52000</v>
       </c>
       <c r="O15" s="3">
         <v>52000</v>
       </c>
       <c r="P15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="Q15" s="3">
         <v>50000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>48000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>46000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>53000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>41000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>40000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>39000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>37000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>36000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>30000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1364,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1788000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1654000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1771000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1656000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1619000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1475000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1722000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1572000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1400000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1396000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1788000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1589000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1557000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1436000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1743000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1562000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1487000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1297000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1456000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1298000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1240000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1105000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1484000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E18" s="3">
         <v>238000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>549000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>451000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>352000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>298000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>551000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>296000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>218000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>259000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>588000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>405000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>303000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>221000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>511000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>273000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>171000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>501000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>347000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>257000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>176000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>399000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1515,378 +1547,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
         <v>39000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>24000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>12000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>47000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>29000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-336000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>31000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>16000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>32000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>17000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>23000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>19000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>471000</v>
+      </c>
+      <c r="E21" s="3">
         <v>388000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>686000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>568000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>496000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>455000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>689000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>414000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>334000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>378000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>356000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>507000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>430000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>340000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>620000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>421000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>386000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>276000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>606000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>429000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>346000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>254000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>493000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E22" s="3">
         <v>58000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>55000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>46000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>56000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58000</v>
-      </c>
-      <c r="J22" s="3">
-        <v>60000</v>
       </c>
       <c r="K22" s="3">
         <v>60000</v>
       </c>
       <c r="L22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="M22" s="3">
         <v>55000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>59000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>60000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>62000</v>
       </c>
       <c r="R22" s="3">
         <v>62000</v>
       </c>
       <c r="S22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="T22" s="3">
         <v>63000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>54000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>51000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>55000</v>
       </c>
       <c r="W22" s="3">
         <v>55000</v>
       </c>
       <c r="X22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>54000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>56000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>300000</v>
+      </c>
+      <c r="E23" s="3">
         <v>219000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>518000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>405000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>340000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>289000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>522000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>251000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>176000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>224000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>193000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>348000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>275000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>185000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>465000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>270000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>227000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>140000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>466000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>286000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>205000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>120000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>362000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-49000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>116000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>97000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>46000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>44000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>109000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>45000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>40000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>26000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-50000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>80000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>67000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>33000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>107000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>36000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>46000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>23000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>165000</v>
-      </c>
-      <c r="V24" s="3">
-        <v>73000</v>
       </c>
       <c r="W24" s="3">
         <v>73000</v>
       </c>
       <c r="X24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="Y24" s="3">
         <v>42000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>118000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1959,156 +2007,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E26" s="3">
         <v>268000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>402000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>308000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>294000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>245000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>413000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>206000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>136000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>198000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>243000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>268000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>208000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>152000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>358000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>234000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>181000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>117000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>301000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>213000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>132000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>78000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>244000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E27" s="3">
         <v>267000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>401000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>307000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>293000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>244000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>412000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>205000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>135000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>197000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>243000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>267000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>207000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>151000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>357000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>233000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>180000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>117000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>299000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>212000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>131000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>77000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>243000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2181,8 +2238,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2207,17 +2267,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2225,23 +2285,23 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>65000</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>14000</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2249,14 +2309,17 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2392,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2469,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-39000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-24000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-12000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-47000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-29000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>336000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-31000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-16000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-32000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-17000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-23000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E33" s="3">
         <v>267000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>401000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>307000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>293000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>244000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>412000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>205000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>135000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>197000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>243000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>267000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>207000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>151000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>422000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>247000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>180000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>117000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-575000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>212000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>131000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>77000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>243000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2700,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E35" s="3">
         <v>267000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>401000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>307000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>293000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>244000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>412000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>205000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>135000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>197000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>243000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>267000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>207000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>151000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>422000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>247000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>180000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>117000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-575000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>212000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>131000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>77000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>243000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44100</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2890,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2919,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>717000</v>
+      </c>
+      <c r="E41" s="3">
         <v>878000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1874000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1653000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1921000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1320000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1254000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1007000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1341000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1672000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1001000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1138000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>953000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>886000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1246000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>839000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>878000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>795000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1205000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>653000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>742000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>766000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1030000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2971,537 +3060,561 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>50000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>45000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>46000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2405000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2231000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2562000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2296000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1936000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2398000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2314000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2141000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2161000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2559000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2355000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2262000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2201000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2473000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2272000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2069000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2136000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1675000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1526000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1321000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1164000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1500000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1071000</v>
+      </c>
+      <c r="E44" s="3">
         <v>952000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>788000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>604000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>559000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>530000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>508000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>489000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>449000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>442000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>447000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>460000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>424000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>425000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>356000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>367000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>391000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>441000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>876000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>959000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>920000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>895000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>768000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>218000</v>
+      </c>
+      <c r="E45" s="3">
         <v>219000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>188000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>182000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>180000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>156000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>167000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>161000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>155000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>206000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>171000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>201000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>192000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>202000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>197000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>186000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>243000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>249000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>194000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>198000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>178000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>203000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>124000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4411000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4280000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5412000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4735000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4660000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3942000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4327000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3971000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4086000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4481000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4178000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4154000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3831000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3714000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4272000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3664000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3581000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3621000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3950000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3336000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3211000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3073000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3468000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E47" s="3">
         <v>301000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>333000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>327000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>291000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>273000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>263000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>255000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>258000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>253000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>307000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>261000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>328000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>323000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>330000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>372000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>363000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>364000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>358000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>312000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>323000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>314000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>327000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1405000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1467000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1424000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1426000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1458000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1476000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1490000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1448000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1427000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1453000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1546000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1524000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1507000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1530000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>895000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>892000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>895000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>900000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>856000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>889000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>859000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>820000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>789000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4128000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4168000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3670000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3583000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3342000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3401000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3453000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3475000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3365000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3317000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3394000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3337000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3184000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3276000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2744000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2838000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2868000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2971000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1799000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1828000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1617000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1615000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1549000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3687,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3764,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1448000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1433000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1350000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1351000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1380000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1331000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1343000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1212000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1238000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1212000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1217000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1097000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1124000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1150000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1168000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1197000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1174000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1195000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1245000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2253000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2285000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2318000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2330000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3918,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11672000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11649000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12189000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11422000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11131000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10423000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10876000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10361000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10374000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10716000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10642000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10373000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9974000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9993000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9409000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8963000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8881000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9051000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8208000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8618000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8295000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8140000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8463000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4026,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4055,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E57" s="3">
         <v>827000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>851000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>620000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>547000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>484000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>612000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>536000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>498000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>531000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>618000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>557000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>544000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>558000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>592000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>456000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>430000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>463000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>593000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>473000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>440000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>433000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>553000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E58" s="3">
         <v>4000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>6000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>9000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>12000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>212000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>517000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>814000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>16000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>617000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>28000</v>
       </c>
       <c r="P58" s="3">
         <v>28000</v>
       </c>
       <c r="Q58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="R58" s="3">
         <v>31000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>337000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>347000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>492000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>52000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>47000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>46000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>44000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2880000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3055000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3207000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2803000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2628000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2865000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2564000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2465000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2534000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2805000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2482000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2304000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2393000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2473000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2295000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2145000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2141000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2286000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2043000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1924000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1908000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2111000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3801000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3886000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4063000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3429000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3184000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3095000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3489000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3312000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3480000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3879000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3439000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3656000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2876000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2979000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3096000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3088000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2922000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3096000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2931000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2563000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2410000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2385000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2668000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6011000</v>
+      </c>
+      <c r="E61" s="3">
         <v>5689000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5688000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5687000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5686000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5164000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5163000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>5111000</v>
       </c>
       <c r="L61" s="3">
         <v>5111000</v>
       </c>
       <c r="M61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="N61" s="3">
         <v>5113000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5112000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5315000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5287000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5289000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5095000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5298000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5304000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>4419000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4423000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4421000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4414000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4392000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2290000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2372000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2461000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2554000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2605000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2642000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2765000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2627000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2598000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2656000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2773000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2689000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2737000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2817000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2300000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2175000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2153000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2190000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2585000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2450000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2440000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2378000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2355000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4592,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4518,8 +4669,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4746,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12115000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11965000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12229000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11685000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11489000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10919000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11434000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11117000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11204000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11664000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11342000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11474000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10944000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11101000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10702000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10374000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10388000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10605000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9950000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9448000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9283000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9190000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9427000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4854,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4929,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5006,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5083,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5160,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>936000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1002000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1350000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1201000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1151000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1080000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1127000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1008000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1017000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1074000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1239000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1220000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1051000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>963000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1051000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>788000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>627000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>531000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>467000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>981000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>945000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>970000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1148000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5314,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5391,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5468,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-443000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-316000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-40000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-263000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-358000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-496000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-558000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-756000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-830000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-948000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-700000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-970000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-830000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-988000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-964000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5622,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44100</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E81" s="3">
         <v>267000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>401000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>307000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>293000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>244000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>412000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>205000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>135000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>197000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>243000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>267000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>207000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>151000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>422000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>247000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>180000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>117000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-575000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>212000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>131000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>77000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>243000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5812,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E83" s="3">
         <v>111000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>113000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>105000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>110000</v>
       </c>
       <c r="H83" s="3">
         <v>110000</v>
       </c>
       <c r="I83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="J83" s="3">
         <v>109000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>103000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>98000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>99000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>104000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>96000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>95000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>96000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>82000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>89000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>88000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>86000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>80000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>75000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5964,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6041,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6118,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6195,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6272,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E89" s="3">
         <v>152000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>703000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>376000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>370000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>704000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>392000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>209000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>308000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>795000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>526000</v>
-      </c>
-      <c r="O89" s="3">
-        <v>251000</v>
       </c>
       <c r="P89" s="3">
         <v>251000</v>
       </c>
       <c r="Q89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="R89" s="3">
         <v>812000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>338000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>425000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>761000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>270000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>173000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>142000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>513000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6380,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-68000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-61000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-62000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-52000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-66000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-49000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-54000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-48000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-59000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-60000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-63000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-66000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-69000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-41000</v>
       </c>
       <c r="T91" s="3">
         <v>-41000</v>
       </c>
       <c r="U91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="V91" s="3">
         <v>-21000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-85000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-53000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6532,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6609,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-116000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-557000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-217000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-411000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-52000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-68000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-228000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-115000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-132000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-312000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-58000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-432000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-40000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-67000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-33000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-226000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-68000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-121000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-281000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,28 +6717,29 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-120000</v>
       </c>
       <c r="F96" s="3">
         <v>-120000</v>
       </c>
       <c r="G96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="H96" s="3">
         <v>-121000</v>
       </c>
       <c r="I96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="J96" s="3">
         <v>-109000</v>
@@ -6518,22 +6751,22 @@
         <v>-109000</v>
       </c>
       <c r="M96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="N96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-94000</v>
       </c>
       <c r="O96" s="3">
         <v>-94000</v>
       </c>
       <c r="P96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-84000</v>
       </c>
       <c r="S96" s="3">
         <v>-84000</v>
@@ -6542,25 +6775,28 @@
         <v>-84000</v>
       </c>
       <c r="U96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-77000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-77000</v>
       </c>
       <c r="X96" s="3">
         <v>-77000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-67000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6869,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6946,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7023,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-577000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-250000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-209000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>286000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-256000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-434000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-515000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-456000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>439000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-815000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-18000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-110000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-201000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-314000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-388000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-227000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1149000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-185000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-152000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-151000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-234000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-851000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-14000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-24000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>45000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>17000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-50000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-20000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-16000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>22000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22000</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-48000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>30000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>20000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>22000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-38000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-161000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-996000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>221000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-268000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>601000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>66000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>247000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-334000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-331000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>671000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-139000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>176000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>67000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-360000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>406000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-90000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>83000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-410000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>551000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-88000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-24000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-201000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-657000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,345 +665,357 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2373000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2140000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1892000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2320000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2107000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1971000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1773000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2273000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1868000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1618000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1655000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2376000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1994000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1860000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1657000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2254000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1862000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1760000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1468000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1957000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1645000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1497000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1281000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1883000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1342000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1150000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1035000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1137000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1062000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1019000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>913000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1127000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>959000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>852000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>868000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1156000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>987000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>929000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>884000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1166000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>961000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>938000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>799000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>987000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>851000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>807000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>711000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>955000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1031000</v>
+      </c>
+      <c r="E10" s="3">
         <v>990000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>857000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1183000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1045000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>952000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>860000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1146000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>909000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>766000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>787000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1220000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1007000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>931000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>773000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1088000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>901000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>822000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>669000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>970000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>794000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>690000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>570000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>928000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1031,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>197000</v>
+      </c>
+      <c r="E12" s="3">
         <v>191000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>188000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>189000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>183000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>181000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>180000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>181000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>175000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>161000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>168000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>182000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>172000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>170000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>162000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>165000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>158000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>162000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>152000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>155000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>141000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>138000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>135000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>142000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1185,162 +1201,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>26000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>28000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>14000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>27000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>71000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>39000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>27000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>55000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>28000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>17000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>18000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>26000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>29000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>16000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>60000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E15" s="3">
         <v>65000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>66000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>64000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>56000</v>
-      </c>
-      <c r="H15" s="3">
-        <v>58000</v>
       </c>
       <c r="I15" s="3">
         <v>58000</v>
       </c>
       <c r="J15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="K15" s="3">
         <v>57000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>51000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>53000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>54000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>52000</v>
       </c>
       <c r="P15" s="3">
         <v>52000</v>
       </c>
       <c r="Q15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="R15" s="3">
         <v>50000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>48000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>46000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>53000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>41000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>40000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>39000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>37000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>36000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>30000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1365,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2000000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1788000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1654000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1771000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1656000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1619000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1475000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1722000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1572000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1400000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1396000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1788000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1589000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1557000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1436000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1743000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1562000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1487000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1297000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1456000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1298000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1240000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1105000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1484000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E18" s="3">
         <v>352000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>238000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>549000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>451000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>352000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>298000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>551000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>296000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>218000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>259000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>588000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>405000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>303000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>221000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>511000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>273000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>171000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>501000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>347000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>257000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>176000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>399000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1548,393 +1580,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>39000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>24000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>12000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>47000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>29000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>18000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-336000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>31000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>24000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>32000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>17000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>23000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-6000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>19000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E21" s="3">
         <v>471000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>388000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>686000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>568000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>496000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>455000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>689000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>414000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>334000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>378000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>356000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>507000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>430000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>340000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>620000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>421000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>386000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>276000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>606000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>429000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>346000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>254000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>493000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="E22" s="3">
         <v>59000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>58000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>55000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>46000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>56000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>60000</v>
       </c>
       <c r="L22" s="3">
         <v>60000</v>
       </c>
       <c r="M22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="N22" s="3">
         <v>55000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>59000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>60000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60000</v>
-      </c>
-      <c r="R22" s="3">
-        <v>62000</v>
       </c>
       <c r="S22" s="3">
         <v>62000</v>
       </c>
       <c r="T22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="U22" s="3">
         <v>63000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>54000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>51000</v>
-      </c>
-      <c r="W22" s="3">
-        <v>55000</v>
       </c>
       <c r="X22" s="3">
         <v>55000</v>
       </c>
       <c r="Y22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="Z22" s="3">
         <v>54000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>56000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E23" s="3">
         <v>300000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>219000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>518000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>405000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>340000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>289000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>522000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>251000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>176000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>224000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>193000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>348000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>275000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>185000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>465000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>270000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>227000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>140000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>466000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>286000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>205000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>120000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>362000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E24" s="3">
         <v>71000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-49000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>116000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>97000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>46000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>44000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>109000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>45000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>40000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>26000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-50000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>80000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>67000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>33000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>107000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>36000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>46000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>23000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>165000</v>
-      </c>
-      <c r="W24" s="3">
-        <v>73000</v>
       </c>
       <c r="X24" s="3">
         <v>73000</v>
       </c>
       <c r="Y24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>42000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>118000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2010,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>280000</v>
+      </c>
+      <c r="E26" s="3">
         <v>229000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>268000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>402000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>308000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>294000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>245000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>413000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>206000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>136000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>198000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>243000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>268000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>208000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>152000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>358000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>234000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>181000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>117000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>301000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>213000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>132000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>78000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>244000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E27" s="3">
         <v>228000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>267000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>401000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>307000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>293000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>244000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>412000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>205000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>135000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>197000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>243000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>267000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>207000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>151000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>357000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>233000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>180000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>117000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>299000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>212000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>131000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>77000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>243000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2241,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2270,17 +2330,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2288,23 +2348,23 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>65000</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>14000</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2312,14 +2372,17 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2395,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2472,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-39000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-24000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-12000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-47000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-29000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-18000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>336000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-31000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-24000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-32000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-17000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-23000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-19000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E33" s="3">
         <v>228000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>267000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>401000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>307000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>293000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>244000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>412000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>205000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>135000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>197000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>243000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>267000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>207000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>151000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>422000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>247000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>180000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>117000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-575000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>212000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>131000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>77000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>243000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2703,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E35" s="3">
         <v>228000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>267000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>401000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>307000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>293000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>244000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>412000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>205000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>135000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>197000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>243000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>267000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>207000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>151000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>422000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>247000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>180000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>117000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-575000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>212000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>131000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>77000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>243000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2891,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2920,85 +3005,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>822000</v>
+      </c>
+      <c r="E41" s="3">
         <v>717000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>878000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1874000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1653000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1921000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1320000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1254000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1007000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1341000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1672000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1001000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1138000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>953000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>886000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1246000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>839000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>878000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>795000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1205000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>653000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>742000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>766000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1030000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3063,558 +3152,582 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>50000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>45000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>46000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2488000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2405000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2231000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2562000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2296000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1936000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2398000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2314000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2141000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2161000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2559000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2355000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2262000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2201000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2473000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2272000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2069000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2136000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1675000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1526000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1321000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1164000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1500000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1157000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1071000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>952000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>788000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>604000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>559000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>530000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>508000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>489000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>449000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>442000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>447000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>460000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>424000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>425000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>356000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>367000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>391000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>441000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>876000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>959000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>920000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>895000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>768000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>240000</v>
+      </c>
+      <c r="E45" s="3">
         <v>218000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>219000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>188000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>182000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>180000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>156000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>167000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>161000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>155000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>206000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>171000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>201000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>192000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>202000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>197000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>186000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>243000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>249000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>194000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>198000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>178000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>203000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>124000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4707000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4411000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4280000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5412000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4735000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4660000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3942000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4327000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3971000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4086000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4481000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4178000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4154000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3831000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3714000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4272000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3664000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3581000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3621000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3950000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3336000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3211000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3073000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3468000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>266000</v>
+      </c>
+      <c r="E47" s="3">
         <v>280000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>301000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>333000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>327000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>291000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>273000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>263000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>255000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>258000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>253000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>307000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>261000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>328000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>323000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>330000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>372000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>363000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>364000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>358000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>312000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>323000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>314000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>327000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1405000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1467000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1424000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1426000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1458000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1476000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1490000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1448000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1427000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1453000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1546000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1524000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1507000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1530000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>895000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>892000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>895000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>900000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>856000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>889000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>859000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>820000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>789000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4028000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4128000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4168000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>3670000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3583000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3342000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3401000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3453000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3475000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3365000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3317000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3394000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3337000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3184000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3276000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2744000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2838000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2868000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2971000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1799000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1828000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1617000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1615000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1549000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3690,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3767,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1420000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1448000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1433000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1350000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1351000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1380000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1331000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1343000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1212000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1238000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1212000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1217000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1097000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1124000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1150000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1168000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1197000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1174000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1195000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1245000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2253000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2285000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2318000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2330000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3921,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11625000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11672000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11649000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12189000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11422000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11131000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10423000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10876000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10361000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10374000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10716000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10642000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10373000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9974000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9993000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9409000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8963000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8881000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9051000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8208000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8618000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8295000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8140000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8463000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4027,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4056,470 +4185,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>885000</v>
+      </c>
+      <c r="E57" s="3">
         <v>919000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>827000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>851000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>620000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>547000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>484000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>612000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>536000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>498000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>531000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>618000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>557000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>544000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>558000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>592000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>456000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>430000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>463000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>593000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>473000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>440000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>433000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>553000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>4000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>6000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>9000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>12000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>212000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>517000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>814000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>16000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>617000</v>
-      </c>
-      <c r="P58" s="3">
-        <v>28000</v>
       </c>
       <c r="Q58" s="3">
         <v>28000</v>
       </c>
       <c r="R58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="S58" s="3">
         <v>31000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>337000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>347000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>492000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>52000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>47000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>46000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>44000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>4000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2882000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2880000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3055000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3207000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2803000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2628000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2600000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2865000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2564000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2465000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2534000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2805000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2482000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2304000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2393000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2473000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2295000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2145000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2141000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2286000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2043000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1924000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1908000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2111000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3768000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3801000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3886000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4063000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3429000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3184000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3095000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3489000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3312000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3480000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3879000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3439000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3656000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2876000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2979000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3096000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3088000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2922000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3096000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2931000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2563000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2410000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2385000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2668000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6012000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6011000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>5689000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5688000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5687000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5686000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5164000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5163000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="L61" s="3">
-        <v>5111000</v>
       </c>
       <c r="M61" s="3">
         <v>5111000</v>
       </c>
       <c r="N61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="O61" s="3">
         <v>5113000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5112000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5315000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5287000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5289000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5095000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5298000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5304000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>4419000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4423000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4421000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4414000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4392000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2239000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2290000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2372000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2461000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2554000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2605000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2642000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2765000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2627000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2598000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2656000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2773000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2689000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2737000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2817000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2300000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2175000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2153000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2190000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2585000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2450000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2440000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2378000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2355000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4595,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4672,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4749,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12033000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12115000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11965000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12229000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11685000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11489000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10919000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11434000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11117000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11204000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11664000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11342000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11474000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10944000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11101000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10702000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10374000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10388000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10605000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9950000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9448000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9283000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9190000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9427000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4855,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4932,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5009,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5086,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5163,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>989000</v>
+      </c>
+      <c r="E72" s="3">
         <v>936000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1002000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1350000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1201000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1151000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1080000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1127000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1008000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1017000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1074000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1239000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1220000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1051000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>963000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1051000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>788000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>627000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>531000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>467000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>981000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>945000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>970000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1148000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5317,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5394,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5471,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-408000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-443000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-316000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-40000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-263000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-358000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-496000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-558000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-756000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-830000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-948000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-700000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-970000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-830000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-988000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-964000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5625,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E81" s="3">
         <v>228000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>267000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>401000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>307000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>293000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>244000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>412000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>205000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>135000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>197000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>243000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>267000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>207000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>151000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>422000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>247000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>180000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>117000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-575000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>212000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>131000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>77000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>243000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5813,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E83" s="3">
         <v>112000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>111000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>113000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>105000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>110000</v>
       </c>
       <c r="I83" s="3">
         <v>110000</v>
       </c>
       <c r="J83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="K83" s="3">
         <v>109000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>103000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>98000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>99000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>104000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>99000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>96000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>95000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>96000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>82000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>89000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>88000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>86000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>80000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>75000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5967,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6044,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6121,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6198,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6275,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E89" s="3">
         <v>10000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>152000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>703000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>376000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>388000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>370000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>704000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>392000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>209000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>308000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>795000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>526000</v>
-      </c>
-      <c r="P89" s="3">
-        <v>251000</v>
       </c>
       <c r="Q89" s="3">
         <v>251000</v>
       </c>
       <c r="R89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="S89" s="3">
         <v>812000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>338000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>425000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>761000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>270000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>173000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>142000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>513000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6381,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-59000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-68000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-61000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-62000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-52000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-66000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-49000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-54000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-48000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-59000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-60000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-63000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-66000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-69000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-41000</v>
       </c>
       <c r="U91" s="3">
         <v>-41000</v>
       </c>
       <c r="V91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="W91" s="3">
         <v>-21000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-85000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-53000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-68000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6535,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6612,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-116000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-557000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-217000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-411000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-62000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-52000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-68000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-228000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-115000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-26000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-132000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-312000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-58000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-432000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-40000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-67000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-33000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-226000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-121000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-281000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6718,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6727,22 +6960,22 @@
         <v>-132000</v>
       </c>
       <c r="E96" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="F96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-120000</v>
       </c>
       <c r="G96" s="3">
         <v>-120000</v>
       </c>
       <c r="H96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="I96" s="3">
         <v>-121000</v>
       </c>
       <c r="J96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="K96" s="3">
         <v>-109000</v>
@@ -6754,22 +6987,22 @@
         <v>-109000</v>
       </c>
       <c r="N96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="O96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-94000</v>
       </c>
       <c r="P96" s="3">
         <v>-94000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-93000</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-84000</v>
       </c>
       <c r="T96" s="3">
         <v>-84000</v>
@@ -6778,25 +7011,28 @@
         <v>-84000</v>
       </c>
       <c r="V96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-77000</v>
       </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-77000</v>
       </c>
       <c r="Y96" s="3">
         <v>-77000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6872,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6949,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7026,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-140000</v>
+      </c>
+      <c r="E100" s="3">
         <v>13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-577000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-250000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-209000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>286000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-256000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-434000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-515000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-456000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>439000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-815000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-18000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-110000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-201000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-314000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-388000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-227000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1149000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-185000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-152000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-151000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-234000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-851000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-68000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-24000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>45000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>17000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>31000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-50000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-20000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>22000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22000</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-48000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>30000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>8000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>20000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>22000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>12000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-38000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-161000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-996000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>221000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-268000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>601000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>66000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>247000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-334000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-331000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>671000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-139000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>176000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>67000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-360000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>406000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-90000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>83000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-410000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>551000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-88000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-201000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-657000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,370 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2707000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2373000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2140000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1892000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2320000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2107000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1971000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1773000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2273000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1868000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1618000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1655000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2376000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1994000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1860000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1657000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2254000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1862000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1760000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1468000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1957000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1645000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1497000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1281000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1883000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1356000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1342000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1150000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1035000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1137000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1062000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1019000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>913000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1127000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>959000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>852000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>868000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1156000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>987000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>929000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>884000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1166000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>961000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>938000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>799000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>987000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>851000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>807000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>711000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>955000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1351000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1031000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>990000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>857000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1183000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1045000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>952000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>860000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1146000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>909000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>766000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>787000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1220000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1007000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>931000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>773000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1088000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>901000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>822000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>669000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>970000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>794000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>690000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>570000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>928000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1057,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>202000</v>
+      </c>
+      <c r="E12" s="3">
         <v>197000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>191000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>188000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>189000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>183000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>181000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>180000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>181000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>175000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>161000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>168000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>182000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>172000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>170000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>162000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>165000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>158000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>162000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>152000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>155000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>141000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>138000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>135000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>142000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,88 +1221,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E14" s="3">
         <v>19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>26000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>28000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>27000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>22000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>71000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>39000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>27000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>55000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>28000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>17000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>18000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>26000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>29000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>16000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>60000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1293,79 +1316,82 @@
         <v>63000</v>
       </c>
       <c r="E15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F15" s="3">
         <v>65000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>66000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>64000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>56000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>58000</v>
       </c>
       <c r="J15" s="3">
         <v>58000</v>
       </c>
       <c r="K15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="L15" s="3">
         <v>57000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>54000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>51000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>53000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>54000</v>
-      </c>
-      <c r="P15" s="3">
-        <v>52000</v>
       </c>
       <c r="Q15" s="3">
         <v>52000</v>
       </c>
       <c r="R15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="S15" s="3">
         <v>50000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>48000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>46000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>53000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>41000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>40000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>39000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>37000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>36000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>30000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1417,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>2016000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2000000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1788000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1654000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1771000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1656000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1619000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1475000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1722000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1572000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1396000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1788000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1589000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1557000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1436000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1743000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1562000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1487000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1297000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1456000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1298000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1240000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1105000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1484000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>691000</v>
+      </c>
+      <c r="E18" s="3">
         <v>373000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>352000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>238000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>549000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>451000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>352000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>298000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>551000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>296000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>218000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>259000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>588000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>405000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>303000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>221000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>511000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>273000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>171000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>501000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>347000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>257000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>176000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>399000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1581,408 +1614,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E20" s="3">
         <v>22000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>39000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>47000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>29000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>15000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-336000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>31000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>24000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>32000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>17000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>23000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>16000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>19000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>833000</v>
+      </c>
+      <c r="E21" s="3">
         <v>503000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>471000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>388000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>686000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>568000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>496000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>455000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>689000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>414000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>334000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>378000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>356000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>507000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>430000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>340000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>620000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>421000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>386000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>276000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>606000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>429000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>346000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>254000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>493000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E22" s="3">
         <v>62000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>59000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>58000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>55000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>46000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>56000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58000</v>
-      </c>
-      <c r="L22" s="3">
-        <v>60000</v>
       </c>
       <c r="M22" s="3">
         <v>60000</v>
       </c>
       <c r="N22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="O22" s="3">
         <v>55000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>59000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>60000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
-      </c>
-      <c r="S22" s="3">
-        <v>62000</v>
       </c>
       <c r="T22" s="3">
         <v>62000</v>
       </c>
       <c r="U22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="V22" s="3">
         <v>63000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>54000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>51000</v>
-      </c>
-      <c r="X22" s="3">
-        <v>55000</v>
       </c>
       <c r="Y22" s="3">
         <v>55000</v>
       </c>
       <c r="Z22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AA22" s="3">
         <v>54000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>56000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>663000</v>
+      </c>
+      <c r="E23" s="3">
         <v>333000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>300000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>219000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>518000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>405000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>340000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>289000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>522000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>251000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>176000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>224000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>193000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>348000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>275000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>185000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>465000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>270000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>227000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>140000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>466000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>286000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>205000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>120000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>362000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E24" s="3">
         <v>53000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>71000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-49000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>116000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>97000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>46000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>44000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>109000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>45000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>40000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>26000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-50000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>80000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>67000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>33000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>107000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>36000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>46000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>23000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>165000</v>
-      </c>
-      <c r="X24" s="3">
-        <v>73000</v>
       </c>
       <c r="Y24" s="3">
         <v>73000</v>
       </c>
       <c r="Z24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="AA24" s="3">
         <v>42000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>118000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,168 +2110,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>590000</v>
+      </c>
+      <c r="E26" s="3">
         <v>280000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>229000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>268000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>402000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>308000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>294000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>245000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>413000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>206000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>136000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>198000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>243000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>268000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>208000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>152000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>358000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>234000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>181000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>117000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>301000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>213000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>132000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>78000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>244000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E27" s="3">
         <v>279000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>228000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>267000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>401000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>307000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>293000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>244000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>412000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>205000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>135000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>197000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>243000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>267000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>207000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>151000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>357000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>233000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>180000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>117000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>299000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>212000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>131000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>77000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>243000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2301,8 +2359,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2333,17 +2394,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2351,23 +2412,23 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>65000</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>14000</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2375,14 +2436,17 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2525,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2608,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-22000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-39000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-12000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-47000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-29000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-15000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>336000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-31000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-24000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-32000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-17000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-23000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-16000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-19000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E33" s="3">
         <v>279000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>228000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>267000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>401000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>307000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>293000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>244000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>412000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>205000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>135000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>197000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>243000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>267000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>207000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>151000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>422000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>247000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>180000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>117000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-575000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>212000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>131000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>77000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>243000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2857,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E35" s="3">
         <v>279000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>228000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>267000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>401000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>307000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>293000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>244000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>412000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>205000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>135000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>197000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>243000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>267000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>207000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>151000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>422000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>247000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>180000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>117000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-575000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>212000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>131000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>77000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>243000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3061,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,88 +3092,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1325000</v>
+      </c>
+      <c r="E41" s="3">
         <v>822000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>717000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>878000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1874000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1653000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1921000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1320000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1254000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1007000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1341000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1672000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1001000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1138000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>953000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>886000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1246000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>839000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>878000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>795000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1205000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>653000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>742000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>766000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1030000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3155,579 +3245,603 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>50000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>45000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>46000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2633000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2488000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2405000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2231000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2562000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2296000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1936000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2398000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2314000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2141000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2161000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2559000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2355000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2262000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2201000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2473000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2272000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2069000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2136000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1675000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1526000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1321000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1164000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1500000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1157000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1071000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>952000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>788000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>604000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>559000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>530000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>508000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>489000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>449000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>442000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>447000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>460000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>424000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>425000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>356000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>367000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>391000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>441000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>876000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>959000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>920000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>895000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>768000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>242000</v>
+      </c>
+      <c r="E45" s="3">
         <v>240000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>218000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>219000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>188000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>182000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>180000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>156000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>167000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>161000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>155000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>206000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>171000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>201000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>192000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>202000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>197000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>186000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>243000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>249000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>194000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>198000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>178000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>203000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>124000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5255000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4707000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4411000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4280000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5412000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4735000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4660000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3942000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4327000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3971000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4086000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4481000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4178000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4154000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3831000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3714000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4272000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3664000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3581000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3621000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3950000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3336000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3211000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3073000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3468000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>277000</v>
+      </c>
+      <c r="E47" s="3">
         <v>266000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>280000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>301000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>333000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>327000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>291000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>273000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>263000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>255000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>258000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>253000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>307000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>261000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>328000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>323000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>330000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>372000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>363000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>364000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>358000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>312000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>323000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>314000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>327000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1412000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1204000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1405000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1467000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1424000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1426000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1458000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1476000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1490000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1448000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1427000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1453000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1546000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1524000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1507000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1530000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>895000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>892000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>895000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>900000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>856000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>889000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>859000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>820000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>789000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4654000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4028000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4128000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4168000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>3670000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3583000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3342000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3401000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3453000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3475000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3365000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3317000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3394000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3337000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3184000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3276000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2744000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2838000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2868000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2971000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1799000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1828000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1617000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1615000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1549000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3920,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4003,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1216000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1420000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1448000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1433000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1350000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1351000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1380000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1331000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1343000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1212000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1238000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1212000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1217000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1097000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1124000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1150000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1168000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1197000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1174000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1195000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1245000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2253000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2285000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2318000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2330000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4169,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12814000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11625000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11672000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11649000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12189000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11422000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11131000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10423000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10876000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10361000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10374000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10716000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10642000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10373000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9974000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9993000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9409000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8963000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8881000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9051000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8208000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8618000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8295000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8140000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8463000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4285,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,88 +4316,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1062000</v>
+      </c>
+      <c r="E57" s="3">
         <v>885000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>919000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>827000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>851000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>620000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>547000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>484000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>612000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>536000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>498000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>531000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>618000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>557000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>544000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>558000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>592000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>456000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>430000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>463000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>593000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>473000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>440000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>433000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>553000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4275,399 +4409,414 @@
         <v>1000</v>
       </c>
       <c r="E58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>4000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>9000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>12000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>212000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>517000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>814000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>16000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>617000</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>28000</v>
       </c>
       <c r="R58" s="3">
         <v>28000</v>
       </c>
       <c r="S58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="T58" s="3">
         <v>31000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>337000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>347000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>492000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>52000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>47000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>46000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>44000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>4000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3497000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2882000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2880000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3055000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3207000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2803000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2628000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2600000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2865000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2564000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2465000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2534000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2805000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2482000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2304000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2393000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2473000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2295000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2145000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2141000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2286000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2043000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1924000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1908000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2111000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4560000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3768000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3801000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3886000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4063000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3429000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3184000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3095000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3489000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3312000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3480000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3879000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3439000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3656000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2876000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2979000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3096000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3088000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2922000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3096000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2931000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2563000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2410000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2385000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2668000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6013000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6012000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6011000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>5689000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5688000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5687000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5686000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5164000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5163000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="M61" s="3">
-        <v>5111000</v>
       </c>
       <c r="N61" s="3">
         <v>5111000</v>
       </c>
       <c r="O61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="P61" s="3">
         <v>5113000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5112000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5315000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5287000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5289000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5095000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5298000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5304000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>4419000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4423000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4421000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4414000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4392000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2110000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2239000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2290000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2372000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2461000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2554000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2605000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2642000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2765000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2627000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2598000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2656000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2773000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2689000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2737000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2817000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2300000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2175000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2153000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2190000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2585000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2450000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2440000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2378000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2355000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4895,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4826,8 +4978,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5061,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12698000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12033000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12115000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11965000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12229000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11685000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11489000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10919000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11434000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11117000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11204000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11664000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11342000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11474000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10944000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11101000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10702000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10374000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10388000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10605000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9950000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9448000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9283000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9190000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9427000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5177,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5258,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5341,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5424,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5507,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1343000</v>
+      </c>
+      <c r="E72" s="3">
         <v>989000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>936000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1002000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1350000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1201000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1151000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1080000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1127000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1008000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1017000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1074000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1239000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1051000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>963000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1051000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>788000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>627000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>531000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>467000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>981000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>945000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>970000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1148000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5673,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5756,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5839,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-408000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-443000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-316000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-40000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-263000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-358000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-496000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-558000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-756000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-830000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-948000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-700000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-970000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-830000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-988000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-964000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6005,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>589000</v>
+      </c>
+      <c r="E81" s="3">
         <v>279000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>228000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>267000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>401000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>307000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>293000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>244000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>412000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>205000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>135000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>197000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>243000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>267000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>207000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>151000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>422000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>247000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>180000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>117000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-575000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>212000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>131000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>77000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>243000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6209,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E83" s="3">
         <v>108000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>112000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>111000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>113000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>105000</v>
-      </c>
-      <c r="I83" s="3">
-        <v>110000</v>
       </c>
       <c r="J83" s="3">
         <v>110000</v>
       </c>
       <c r="K83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="L83" s="3">
         <v>109000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>103000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>98000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>99000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>104000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>99000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>96000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>95000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>93000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>89000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>96000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>82000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>89000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>88000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>86000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>80000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>75000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6373,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6456,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6539,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6622,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6705,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1273000</v>
+      </c>
+      <c r="E89" s="3">
         <v>388000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>10000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>152000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>703000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>376000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>388000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>370000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>704000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>392000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>209000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>308000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>795000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>526000</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>251000</v>
       </c>
       <c r="R89" s="3">
         <v>251000</v>
       </c>
       <c r="S89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="T89" s="3">
         <v>812000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>338000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>425000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>761000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>270000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>173000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>142000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>513000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,88 +6821,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-73000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-59000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-54000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-68000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-61000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-62000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-52000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-66000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-49000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-54000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-48000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-59000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-63000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-66000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-69000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-41000</v>
       </c>
       <c r="V91" s="3">
         <v>-41000</v>
       </c>
       <c r="W91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="X91" s="3">
         <v>-21000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-53000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6985,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,88 +7068,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-652000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-116000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-557000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-217000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-411000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-62000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-52000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-68000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-228000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-115000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-132000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-312000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-58000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-432000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-40000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-67000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-33000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-226000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-68000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-121000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-281000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7184,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6963,22 +7197,22 @@
         <v>-132000</v>
       </c>
       <c r="F96" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="G96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-120000</v>
       </c>
       <c r="H96" s="3">
         <v>-120000</v>
       </c>
       <c r="I96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="J96" s="3">
         <v>-121000</v>
       </c>
       <c r="K96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="L96" s="3">
         <v>-109000</v>
@@ -6990,22 +7224,22 @@
         <v>-109000</v>
       </c>
       <c r="O96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="P96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-94000</v>
       </c>
       <c r="Q96" s="3">
         <v>-94000</v>
       </c>
       <c r="R96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-93000</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-84000</v>
       </c>
       <c r="U96" s="3">
         <v>-84000</v>
@@ -7014,25 +7248,28 @@
         <v>-84000</v>
       </c>
       <c r="W96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-77000</v>
       </c>
-      <c r="X96" s="3">
+      <c r="Y96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-77000</v>
       </c>
       <c r="Z96" s="3">
         <v>-77000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7348,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7431,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7514,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-202000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-140000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>13000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-577000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-250000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-209000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>286000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-256000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-434000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-515000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-456000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>439000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-815000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-110000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-201000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-314000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-388000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-227000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1149000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-185000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-152000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-151000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-234000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-851000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-81000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-68000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-24000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-11000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>45000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>17000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>31000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-50000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-16000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22000</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-48000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>30000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>8000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>20000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>22000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>12000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-38000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>503000</v>
+      </c>
+      <c r="E102" s="3">
         <v>105000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-161000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-996000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>221000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-268000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>601000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>66000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>247000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-334000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-331000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>671000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-139000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>176000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>67000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-360000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>406000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-90000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>83000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-410000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>551000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-201000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-657000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,370 +665,383 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2171000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2707000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2373000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2140000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1892000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2320000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2107000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1971000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1773000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2273000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1868000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1618000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1655000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2376000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1994000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1860000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1657000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2254000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1862000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1760000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1468000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1957000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1645000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1497000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1281000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1883000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1125000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1356000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1342000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1150000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1035000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1137000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1062000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1019000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>913000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1127000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>959000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>852000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>868000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1156000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>987000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>929000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>884000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1166000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>961000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>938000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>799000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>987000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>851000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>807000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>711000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>955000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1046000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1351000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1031000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>990000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>857000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1183000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1045000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>952000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>860000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1146000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>909000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>766000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>787000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1220000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1007000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>931000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>773000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1088000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>901000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>822000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>669000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>970000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>794000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>690000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>570000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>928000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1058,91 +1071,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E12" s="3">
         <v>202000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>197000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>191000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>188000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>189000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>183000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>181000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>180000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>181000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>175000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>161000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>168000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>182000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>172000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>170000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>162000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>165000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>158000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>162000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>152000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>155000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>141000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>138000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>135000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>142000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1224,174 +1241,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>17000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>19000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>26000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>28000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>27000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>22000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>71000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>39000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>27000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>55000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>28000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>17000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>26000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>13000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>29000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>16000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>60000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>63000</v>
+        <v>55000</v>
       </c>
       <c r="E15" s="3">
         <v>63000</v>
       </c>
       <c r="F15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G15" s="3">
         <v>65000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>66000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>64000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>56000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>58000</v>
       </c>
       <c r="K15" s="3">
         <v>58000</v>
       </c>
       <c r="L15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="M15" s="3">
         <v>57000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>54000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>51000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>53000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>54000</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>52000</v>
       </c>
       <c r="R15" s="3">
         <v>52000</v>
       </c>
       <c r="S15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="T15" s="3">
         <v>50000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>48000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>46000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>53000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>41000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>40000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>39000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>37000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>36000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>30000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1418,174 +1444,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1778000</v>
+      </c>
+      <c r="E17" s="3">
         <v>2016000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2000000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1788000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1654000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1771000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1656000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1619000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1475000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1722000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1572000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1396000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1788000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1589000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1557000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1436000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1743000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1562000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1487000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1297000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1456000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1298000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1240000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1105000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1484000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E18" s="3">
         <v>691000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>373000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>352000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>238000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>549000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>451000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>352000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>298000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>551000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>296000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>218000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>259000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>588000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>405000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>303000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>221000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>511000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>273000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>171000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>501000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>347000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>257000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>176000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>399000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1615,423 +1648,439 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E20" s="3">
         <v>33000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>22000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>39000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>12000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>47000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>29000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>15000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-336000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>31000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>24000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>32000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>17000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>23000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>16000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>3000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>19000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>519000</v>
+      </c>
+      <c r="E21" s="3">
         <v>833000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>503000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>471000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>388000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>686000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>568000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>496000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>455000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>689000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>414000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>334000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>378000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>356000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>507000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>430000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>340000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>620000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>421000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>386000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>276000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>606000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>429000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>346000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>254000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>493000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E22" s="3">
         <v>61000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>62000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>58000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>55000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>46000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>56000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>58000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>60000</v>
       </c>
       <c r="N22" s="3">
         <v>60000</v>
       </c>
       <c r="O22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="P22" s="3">
         <v>55000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>59000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>60000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
-      </c>
-      <c r="T22" s="3">
-        <v>62000</v>
       </c>
       <c r="U22" s="3">
         <v>62000</v>
       </c>
       <c r="V22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="W22" s="3">
         <v>63000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>54000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>51000</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>55000</v>
       </c>
       <c r="Z22" s="3">
         <v>55000</v>
       </c>
       <c r="AA22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AB22" s="3">
         <v>54000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>56000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E23" s="3">
         <v>663000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>333000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>300000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>219000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>518000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>405000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>340000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>289000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>522000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>251000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>176000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>224000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>193000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>348000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>275000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>185000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>465000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>270000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>227000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>140000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>466000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>286000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>205000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>120000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>362000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>79000</v>
+      </c>
+      <c r="E24" s="3">
         <v>73000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>53000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>71000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-49000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>116000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>97000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>46000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>44000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>45000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>40000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>26000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>80000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>67000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>33000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>107000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>36000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>46000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>23000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>165000</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>73000</v>
       </c>
       <c r="Z24" s="3">
         <v>73000</v>
       </c>
       <c r="AA24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="AB24" s="3">
         <v>42000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>118000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2113,174 +2162,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>279000</v>
+      </c>
+      <c r="E26" s="3">
         <v>590000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>280000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>229000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>268000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>402000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>308000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>294000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>245000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>413000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>206000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>136000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>198000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>243000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>268000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>208000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>152000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>358000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>234000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>181000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>117000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>301000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>213000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>132000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>78000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>244000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E27" s="3">
         <v>589000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>279000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>228000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>267000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>401000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>307000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>293000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>244000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>412000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>205000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>135000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>197000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>243000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>267000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>207000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>151000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>357000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>233000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>180000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>117000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>299000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>212000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>131000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>77000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>243000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2362,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2397,17 +2458,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2415,23 +2476,23 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>65000</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>14000</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2439,14 +2500,17 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2528,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2611,174 +2678,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-33000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-22000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-39000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-12000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-47000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-29000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-15000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>336000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-31000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-24000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-32000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-17000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-23000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-3000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-19000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E33" s="3">
         <v>589000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>279000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>228000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>267000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>401000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>307000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>293000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>244000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>412000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>205000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>135000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>197000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>243000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>267000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>207000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>151000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>422000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>247000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>180000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>117000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-575000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>212000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>131000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>77000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>243000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2860,179 +2936,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E35" s="3">
         <v>589000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>279000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>228000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>267000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>401000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>307000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>293000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>244000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>412000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>205000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>135000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>197000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>243000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>267000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>207000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>151000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>422000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>247000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>180000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>117000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-575000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>212000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>131000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>77000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>243000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3062,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3093,91 +3179,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1022000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1325000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>822000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>717000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>878000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1874000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1653000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1921000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1320000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1254000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1007000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1341000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1672000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1001000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1138000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>953000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>886000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1246000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>839000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>878000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>795000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1205000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>653000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>742000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>766000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1030000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3248,600 +3338,624 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>50000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>45000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>46000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2475000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2633000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2488000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2405000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2231000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2562000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2296000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1936000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2398000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2314000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2141000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2161000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2559000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2355000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2262000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2201000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2473000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2272000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2069000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2136000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1675000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1526000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1321000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1164000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1500000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1082000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1055000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1157000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1071000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>952000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>788000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>604000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>559000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>530000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>508000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>489000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>449000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>442000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>447000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>460000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>424000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>425000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>356000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>367000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>391000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>441000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>876000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>959000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>920000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>895000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>768000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E45" s="3">
         <v>242000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>240000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>218000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>219000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>188000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>182000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>180000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>156000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>167000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>161000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>155000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>206000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>171000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>201000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>192000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>202000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>197000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>186000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>243000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>249000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>194000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>198000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>178000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>203000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>124000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4826000</v>
+      </c>
+      <c r="E46" s="3">
         <v>5255000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4707000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4411000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4280000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5412000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4735000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4660000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3942000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4327000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3971000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4086000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4481000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4178000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4154000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3831000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3714000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4272000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3664000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3581000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3621000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3950000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3336000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3211000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3073000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3468000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>263000</v>
+      </c>
+      <c r="E47" s="3">
         <v>277000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>266000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>280000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>301000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>333000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>327000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>291000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>273000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>263000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>255000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>258000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>253000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>307000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>261000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>328000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>323000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>330000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>372000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>363000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>364000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>358000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>312000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>323000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>314000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>327000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1399000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1412000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1204000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1405000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1467000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1424000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1426000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1458000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1476000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1490000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1448000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1427000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1453000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1546000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1524000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1507000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1530000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>895000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>892000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>895000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>900000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>856000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>889000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>859000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>820000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>789000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4589000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4654000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4028000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4128000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4168000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>3670000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3583000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3342000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3401000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3453000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3475000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3365000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3317000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3394000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3337000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3184000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3276000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2744000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2838000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2868000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2971000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1799000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1828000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1617000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1615000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1549000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3923,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4006,91 +4123,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1216000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1420000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1448000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1433000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1350000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1351000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1380000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1331000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1343000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1212000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1238000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1212000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1217000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1097000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1124000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1150000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1168000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1197000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1174000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1195000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1245000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>2253000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2285000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2318000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2330000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4172,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12353000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12814000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11625000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11672000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11649000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12189000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11422000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11131000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10423000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10876000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10361000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10374000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10716000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10642000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10373000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9974000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9993000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9409000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8963000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8881000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9051000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8208000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8618000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8295000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8140000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8463000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4286,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4317,91 +4447,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>719000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1062000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>885000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>919000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>827000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>851000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>620000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>547000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>484000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>612000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>536000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>498000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>531000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>618000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>557000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>544000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>558000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>592000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>456000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>430000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>463000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>593000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>473000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>440000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>433000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>553000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4412,411 +4546,426 @@
         <v>1000</v>
       </c>
       <c r="F58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>9000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>12000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>212000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>517000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>814000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>16000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>617000</v>
-      </c>
-      <c r="R58" s="3">
-        <v>28000</v>
       </c>
       <c r="S58" s="3">
         <v>28000</v>
       </c>
       <c r="T58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="U58" s="3">
         <v>31000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>337000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>347000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>492000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>52000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>47000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>46000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>44000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>4000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3246000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3497000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2882000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2880000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3055000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3207000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2803000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2628000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2600000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2865000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2564000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2465000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2534000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2805000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2482000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2304000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2393000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2473000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2295000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2145000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2141000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2286000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2043000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1924000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1908000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2111000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3966000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4560000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3768000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3801000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3886000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4063000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3429000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3184000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3095000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3489000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3312000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3480000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3879000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3439000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3656000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2876000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2979000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3096000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3088000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2922000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3096000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2931000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2563000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2410000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2385000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2668000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6014000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6013000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6012000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6011000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5689000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5688000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5687000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5686000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5164000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5163000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>5111000</v>
       </c>
       <c r="O61" s="3">
         <v>5111000</v>
       </c>
       <c r="P61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="Q61" s="3">
         <v>5113000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5112000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5315000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5287000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5289000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5095000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5298000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5304000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>4419000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4423000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4421000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4414000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4392000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2124000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2110000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2239000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2290000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2372000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2461000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2554000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2605000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2642000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2765000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2627000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2598000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2656000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2773000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2689000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2737000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2817000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2300000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2175000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2153000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2190000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2585000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2450000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2440000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2378000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2355000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4898,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4981,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5064,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12119000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12698000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12033000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12115000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>11965000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12229000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11685000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11489000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10919000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11434000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11117000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11204000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11664000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11342000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11474000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10944000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11101000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10702000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10374000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10388000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10605000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9950000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9448000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9283000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9190000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9427000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5178,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5261,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5344,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5427,8 +5595,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5510,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1343000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>989000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>936000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1002000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1350000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1201000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1151000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1080000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1127000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1008000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1017000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1074000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1239000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1220000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1051000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>963000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1051000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>788000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>627000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>531000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>467000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>981000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>945000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>970000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1148000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5676,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5759,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5842,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>234000</v>
+      </c>
+      <c r="E76" s="3">
         <v>116000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-408000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-443000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-316000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-40000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-263000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-358000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-496000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-558000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-756000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-830000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-948000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-700000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-970000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-830000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-988000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-964000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6008,179 +6197,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E81" s="3">
         <v>589000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>279000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>228000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>267000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>401000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>307000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>293000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>244000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>412000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>205000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>135000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>197000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>243000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>267000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>207000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>151000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>422000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>247000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>180000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>117000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-575000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>212000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>131000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>77000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>243000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6210,91 +6408,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>98000</v>
+      </c>
+      <c r="E83" s="3">
         <v>109000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>108000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>112000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>111000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>113000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>105000</v>
-      </c>
-      <c r="J83" s="3">
-        <v>110000</v>
       </c>
       <c r="K83" s="3">
         <v>110000</v>
       </c>
       <c r="L83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="M83" s="3">
         <v>109000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>103000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>98000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>99000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>104000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>99000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>96000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>95000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>93000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>89000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>96000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>82000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>89000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>88000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>86000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>80000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>75000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6376,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6459,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6542,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6625,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6708,91 +6922,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1273000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>388000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>10000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>152000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>703000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>376000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>388000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>370000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>704000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>392000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>209000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>308000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>795000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>526000</v>
-      </c>
-      <c r="R89" s="3">
-        <v>251000</v>
       </c>
       <c r="S89" s="3">
         <v>251000</v>
       </c>
       <c r="T89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="U89" s="3">
         <v>812000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>338000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>425000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>761000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>270000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>173000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>142000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>513000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6822,91 +7042,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-54000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-73000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-70000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-59000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-54000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-68000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-61000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-62000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-52000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-66000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-49000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-54000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-48000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-59000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-60000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-63000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-66000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-69000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-41000</v>
       </c>
       <c r="W91" s="3">
         <v>-41000</v>
       </c>
       <c r="X91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-85000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-53000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-68000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6988,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7071,91 +7298,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-652000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-116000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-557000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-217000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-411000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-62000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-52000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-68000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-228000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-115000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-132000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-312000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-58000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-432000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-40000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-67000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-226000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-68000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-121000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-281000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7185,13 +7418,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-132000</v>
+        <v>-148000</v>
       </c>
       <c r="E96" s="3">
         <v>-132000</v>
@@ -7200,22 +7434,22 @@
         <v>-132000</v>
       </c>
       <c r="G96" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="H96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-120000</v>
       </c>
       <c r="I96" s="3">
         <v>-120000</v>
       </c>
       <c r="J96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="K96" s="3">
         <v>-121000</v>
       </c>
       <c r="L96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="M96" s="3">
         <v>-109000</v>
@@ -7227,22 +7461,22 @@
         <v>-109000</v>
       </c>
       <c r="P96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-94000</v>
       </c>
       <c r="R96" s="3">
         <v>-94000</v>
       </c>
       <c r="S96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-93000</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-84000</v>
       </c>
       <c r="V96" s="3">
         <v>-84000</v>
@@ -7251,25 +7485,28 @@
         <v>-84000</v>
       </c>
       <c r="X96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-77000</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-77000</v>
       </c>
       <c r="AA96" s="3">
         <v>-77000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7351,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7434,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7517,253 +7760,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-263000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-202000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-140000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-577000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-250000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-209000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>286000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-256000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-434000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-515000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-456000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>439000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-815000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-110000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-201000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-314000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-388000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-227000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1149000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-185000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-152000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-151000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-234000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-851000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E101" s="3">
         <v>84000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-81000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-68000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-15000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-24000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>45000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>17000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>31000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-50000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-20000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-16000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>22000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22000</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-48000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>30000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>8000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>20000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>22000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>12000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-38000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-303000</v>
+      </c>
+      <c r="E102" s="3">
         <v>503000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>105000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-161000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-996000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>221000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-268000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>601000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>66000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>247000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-334000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-331000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>671000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-139000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>176000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>67000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-360000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>406000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-90000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>83000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-410000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>551000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-88000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-201000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-657000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,383 +665,395 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2403000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2171000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2707000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2373000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2140000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1892000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2320000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2107000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1971000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1773000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2273000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1868000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1618000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1655000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2376000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1994000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1860000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1657000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2254000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1862000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1760000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1468000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1957000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1645000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1497000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1281000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1883000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1125000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1356000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1342000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1150000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1035000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1137000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1062000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1019000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>913000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1127000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>959000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>852000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>868000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1156000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>987000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>929000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>884000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1166000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>961000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>938000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>799000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>987000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>851000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>807000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>711000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>955000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1189000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1046000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1351000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1031000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>990000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>857000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1183000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1045000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>952000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>860000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1146000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>909000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>766000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>787000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1220000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1007000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>931000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>773000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1088000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>901000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>822000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>669000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>970000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>794000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>690000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>570000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>928000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1072,94 +1084,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E12" s="3">
         <v>210000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>202000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>197000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>191000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>188000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>189000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>183000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>181000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>180000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>181000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>175000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>161000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>168000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>182000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>172000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>170000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>162000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>165000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>158000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>162000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>152000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>155000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>141000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>138000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>135000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>142000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1244,180 +1260,189 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E14" s="3">
         <v>18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>17000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>19000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>26000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>28000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>27000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>22000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>71000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>39000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>27000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>55000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>28000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>17000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>26000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>29000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>16000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>60000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E15" s="3">
         <v>55000</v>
-      </c>
-      <c r="E15" s="3">
-        <v>63000</v>
       </c>
       <c r="F15" s="3">
         <v>63000</v>
       </c>
       <c r="G15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="H15" s="3">
         <v>65000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>66000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>64000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>56000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>58000</v>
       </c>
       <c r="L15" s="3">
         <v>58000</v>
       </c>
       <c r="M15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="N15" s="3">
         <v>57000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>54000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>51000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>53000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>54000</v>
-      </c>
-      <c r="R15" s="3">
-        <v>52000</v>
       </c>
       <c r="S15" s="3">
         <v>52000</v>
       </c>
       <c r="T15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="U15" s="3">
         <v>50000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>48000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>46000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>53000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>41000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>40000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>39000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>37000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>36000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>30000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1888000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1778000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2016000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1788000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1654000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1771000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1656000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1619000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1475000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1722000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1572000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1400000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1396000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1788000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1589000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1557000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1436000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1743000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1562000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1487000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1297000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1456000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1298000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1240000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1105000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1484000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E18" s="3">
         <v>393000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>691000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>373000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>352000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>238000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>549000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>451000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>352000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>298000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>551000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>296000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>218000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>259000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>588000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>405000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>303000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>221000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>511000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>273000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>171000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>501000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>347000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>257000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>176000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>399000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1649,180 +1681,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E20" s="3">
         <v>28000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>33000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>22000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>7000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>39000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>24000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>12000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>34000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>47000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>29000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-336000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>31000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>24000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>16000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>32000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>17000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>23000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>16000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>3000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>19000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>637000</v>
+      </c>
+      <c r="E21" s="3">
         <v>519000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>833000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>503000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>471000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>388000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>686000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>568000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>496000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>455000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>689000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>414000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>334000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>378000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>356000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>507000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>430000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>340000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>620000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>421000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>386000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>276000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>606000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>429000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>346000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>254000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>493000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1830,257 +1869,266 @@
         <v>63000</v>
       </c>
       <c r="E22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="F22" s="3">
         <v>61000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>62000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>58000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>55000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>58000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>46000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>56000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>58000</v>
-      </c>
-      <c r="N22" s="3">
-        <v>60000</v>
       </c>
       <c r="O22" s="3">
         <v>60000</v>
       </c>
       <c r="P22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>55000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>59000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>60000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>59000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>60000</v>
-      </c>
-      <c r="U22" s="3">
-        <v>62000</v>
       </c>
       <c r="V22" s="3">
         <v>62000</v>
       </c>
       <c r="W22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="X22" s="3">
         <v>63000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>54000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>51000</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>55000</v>
       </c>
       <c r="AA22" s="3">
         <v>55000</v>
       </c>
       <c r="AB22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AC22" s="3">
         <v>54000</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>56000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E23" s="3">
         <v>358000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>663000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>333000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>300000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>219000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>518000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>405000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>340000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>289000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>522000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>251000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>176000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>224000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>193000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>348000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>275000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>185000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>465000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>270000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>227000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>140000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>466000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>286000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>205000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>120000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>362000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E24" s="3">
         <v>79000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>73000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>53000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>71000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-49000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>116000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>97000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>46000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>44000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>109000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>45000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>40000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>26000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-50000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>80000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>67000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>33000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>107000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>36000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>46000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>23000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>165000</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>73000</v>
       </c>
       <c r="AA24" s="3">
         <v>73000</v>
       </c>
       <c r="AB24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="AC24" s="3">
         <v>42000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>118000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2165,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>373000</v>
+      </c>
+      <c r="E26" s="3">
         <v>279000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>590000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>280000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>229000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>268000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>402000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>308000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>294000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>245000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>413000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>206000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>136000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>198000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>243000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>268000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>208000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>152000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>358000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>234000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>181000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>117000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>301000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>213000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>132000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>78000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>244000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E27" s="3">
         <v>278000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>589000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>279000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>228000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>267000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>401000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>307000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>293000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>244000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>412000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>205000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>135000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>197000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>243000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>267000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>207000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>151000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>357000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>233000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>180000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>117000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>299000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>212000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>131000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>77000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>243000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2423,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2461,17 +2521,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2479,23 +2539,23 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>65000</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>14000</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2503,14 +2563,17 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,180 +2747,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-35000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-28000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-33000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-22000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-7000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-39000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-24000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-12000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-34000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-47000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-29000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>336000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-31000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-24000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-16000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-32000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-17000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-3000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-19000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E33" s="3">
         <v>278000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>589000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>279000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>228000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>267000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>401000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>307000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>293000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>244000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>412000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>205000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>135000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>197000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>243000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>267000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>207000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>151000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>422000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>247000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>180000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>117000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-575000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>212000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>131000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>77000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>243000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E35" s="3">
         <v>278000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>589000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>279000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>228000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>267000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>401000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>307000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>293000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>244000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>412000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>205000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>135000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>197000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>243000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>267000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>207000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>151000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>422000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>247000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>180000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>117000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-575000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>212000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>131000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>77000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>243000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,94 +3265,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1022000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1325000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>822000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>717000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>878000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1874000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1653000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1921000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1320000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1254000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1007000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1341000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1672000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1001000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1138000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>953000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>886000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1246000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>839000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>878000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>795000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1205000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>653000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>742000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>766000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>1030000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3341,621 +3430,645 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
         <v>50000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>45000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>46000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2664000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2475000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2633000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2488000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2405000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2231000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2562000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2296000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1936000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2398000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2314000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2141000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2161000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2559000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2355000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2262000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2201000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2473000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2272000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2069000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2136000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1675000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1526000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1321000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1164000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1500000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1020000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1082000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1055000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1157000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1071000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>952000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>788000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>604000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>559000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>530000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>508000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>489000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>449000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>442000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>447000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>460000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>424000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>425000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>356000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>367000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>391000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>441000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>876000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>959000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>920000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>895000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>768000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>232000</v>
+      </c>
+      <c r="E45" s="3">
         <v>247000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>242000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>240000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>218000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>219000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>188000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>182000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>180000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>156000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>167000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>161000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>155000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>206000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>171000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>201000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>192000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>202000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>197000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>186000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>243000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>249000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>194000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>198000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>178000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>203000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>124000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>4626000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4826000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5255000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4707000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4411000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4280000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5412000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4735000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4660000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3942000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4327000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3971000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4086000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4481000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4178000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4154000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3831000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3714000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4272000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3664000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3581000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3621000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3950000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3336000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3211000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3073000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3468000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>267000</v>
+      </c>
+      <c r="E47" s="3">
         <v>263000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>277000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>266000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>280000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>301000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>333000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>327000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>291000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>273000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>263000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>255000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>258000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>253000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>307000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>261000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>328000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>323000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>330000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>372000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>363000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>364000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>358000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>312000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>323000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>314000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>327000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1413000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1399000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1412000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1204000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1405000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1467000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1424000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1426000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1458000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1476000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1490000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1448000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1427000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1453000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1546000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1524000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1507000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1530000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>895000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>892000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>895000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>900000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>856000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>889000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>859000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>820000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>789000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4556000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4589000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4654000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4028000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4128000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4168000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>3670000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3583000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3342000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3401000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3453000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3475000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3365000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3317000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3394000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3337000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3184000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3276000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2744000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2838000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2868000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1799000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1828000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1617000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1615000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1549000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1390000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1276000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1216000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1420000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1448000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1433000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1350000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1351000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1380000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1331000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1343000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1212000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1238000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1217000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1097000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1124000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1150000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1168000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1197000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1174000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1195000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1245000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2253000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2285000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2318000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2330000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12252000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12353000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12814000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11625000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11672000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11649000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12189000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11422000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11131000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10423000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10876000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10361000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10374000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10716000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10642000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10373000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9974000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9993000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9409000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8963000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8881000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9051000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8208000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8618000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8295000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8140000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8463000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,99 +4577,103 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>676000</v>
+      </c>
+      <c r="E57" s="3">
         <v>719000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1062000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>885000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>919000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>827000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>851000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>620000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>547000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>484000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>612000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>536000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>498000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>531000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>618000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>557000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>544000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>558000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>592000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>456000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>430000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>463000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>593000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>473000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>440000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>433000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>553000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>1000</v>
@@ -4549,423 +4682,438 @@
         <v>1000</v>
       </c>
       <c r="G58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>6000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>9000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>12000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>212000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>517000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>814000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>16000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>617000</v>
-      </c>
-      <c r="S58" s="3">
-        <v>28000</v>
       </c>
       <c r="T58" s="3">
         <v>28000</v>
       </c>
       <c r="U58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="V58" s="3">
         <v>31000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>337000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>347000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>492000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>52000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>47000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>46000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>44000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>4000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3090000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3246000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3497000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2882000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2880000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3055000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3207000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2803000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2628000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2600000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2865000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2564000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2465000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2534000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2805000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2482000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2304000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2393000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2473000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2295000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2145000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2141000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2286000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2043000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1924000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1908000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2111000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3766000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3966000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4560000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3768000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3801000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3886000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4063000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3429000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3184000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3095000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3489000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3312000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3480000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3879000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3439000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3656000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2876000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2979000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3096000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3088000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2922000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3096000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2931000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2563000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2410000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2385000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2668000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>6015000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6014000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6013000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6012000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6011000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5689000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5688000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5687000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5686000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5164000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5163000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>5111000</v>
       </c>
       <c r="P61" s="3">
         <v>5111000</v>
       </c>
       <c r="Q61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="R61" s="3">
         <v>5113000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5112000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5315000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5287000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5289000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5095000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5298000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5304000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>4419000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4423000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4421000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4414000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4392000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2120000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2124000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2110000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2239000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2290000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2372000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2461000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2554000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2605000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2642000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2765000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2627000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2598000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2656000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2773000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2689000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2737000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2817000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2300000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2175000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2153000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2190000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2585000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2450000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2440000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2378000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2355000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5136,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11915000</v>
+      </c>
+      <c r="E66" s="3">
         <v>12119000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12698000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12033000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12115000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11965000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12229000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11685000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11489000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10919000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>11434000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11117000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11204000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11664000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11342000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11474000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>10944000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>11101000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>10702000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10374000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10388000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10605000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9950000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9448000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9283000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9190000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9427000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5598,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,8 +5854,11 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5693,85 +5866,88 @@
         <v>1333000</v>
       </c>
       <c r="E72" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1343000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>989000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>936000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1002000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1350000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1201000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1151000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1080000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1127000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1008000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1017000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1074000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1239000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1220000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1051000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>963000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1051000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>788000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>627000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>531000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>467000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>981000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>945000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>970000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1148000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>337000</v>
+      </c>
+      <c r="E76" s="3">
         <v>234000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>116000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-408000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-443000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-316000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-40000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-263000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-358000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-496000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-558000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-756000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-830000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-948000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-700000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-970000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-830000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-988000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-964000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>371000</v>
+      </c>
+      <c r="E81" s="3">
         <v>278000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>589000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>279000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>228000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>267000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>401000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>307000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>293000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>244000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>412000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>205000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>135000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>197000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>243000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>267000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>207000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>151000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>422000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>247000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>180000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>117000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-575000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>212000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>131000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>77000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>243000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E83" s="3">
         <v>98000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>109000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>108000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>112000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>111000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>113000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>105000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>110000</v>
       </c>
       <c r="L83" s="3">
         <v>110000</v>
       </c>
       <c r="M83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="N83" s="3">
         <v>109000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>103000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>98000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>99000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>104000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>99000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>96000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>95000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>93000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>89000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>96000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>82000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>89000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>88000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>86000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>80000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>75000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>93000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1273000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>388000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>10000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>152000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>703000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>376000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>388000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>370000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>704000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>392000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>209000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>308000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>795000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>526000</v>
-      </c>
-      <c r="S89" s="3">
-        <v>251000</v>
       </c>
       <c r="T89" s="3">
         <v>251000</v>
       </c>
       <c r="U89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="V89" s="3">
         <v>812000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>338000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>425000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>761000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>270000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>173000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>142000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>513000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-54000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-73000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-59000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-54000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-68000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-61000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-52000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-66000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-49000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-54000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-59000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-60000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-63000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-66000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-69000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-41000</v>
       </c>
       <c r="X91" s="3">
         <v>-41000</v>
       </c>
       <c r="Y91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-21000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-85000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-53000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-68000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-53000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-652000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-62000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-116000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-557000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-217000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-411000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-62000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-52000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-68000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-228000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-115000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-132000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-312000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-58000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-432000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-70000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-40000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-67000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-226000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-68000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-121000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-281000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7428,7 +7661,7 @@
         <v>-148000</v>
       </c>
       <c r="E96" s="3">
-        <v>-132000</v>
+        <v>-148000</v>
       </c>
       <c r="F96" s="3">
         <v>-132000</v>
@@ -7437,22 +7670,22 @@
         <v>-132000</v>
       </c>
       <c r="H96" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-120000</v>
       </c>
       <c r="J96" s="3">
         <v>-120000</v>
       </c>
       <c r="K96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="L96" s="3">
         <v>-121000</v>
       </c>
       <c r="M96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="N96" s="3">
         <v>-109000</v>
@@ -7464,22 +7697,22 @@
         <v>-109000</v>
       </c>
       <c r="Q96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="R96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-94000</v>
       </c>
       <c r="S96" s="3">
         <v>-94000</v>
       </c>
       <c r="T96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-93000</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-84000</v>
       </c>
       <c r="W96" s="3">
         <v>-84000</v>
@@ -7488,25 +7721,28 @@
         <v>-84000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-77000</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>-77000</v>
       </c>
       <c r="AB96" s="3">
         <v>-77000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-366000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-263000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-202000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-140000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-577000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-250000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-209000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>286000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-256000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-434000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-515000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-456000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>439000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-815000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-110000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-201000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-314000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-388000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-227000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1149000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-185000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-152000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-151000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-234000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-851000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E101" s="3">
         <v>21000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>84000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-81000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-68000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-15000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-24000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>45000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>17000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>31000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-50000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-20000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-16000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>22000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22000</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-48000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>30000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>8000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>20000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>22000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>12000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-38000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-312000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-303000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>503000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>105000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-161000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-996000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>221000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-268000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>601000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>66000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>247000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-334000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-331000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>671000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-139000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>176000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>67000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-360000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>406000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-90000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>83000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-410000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>551000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-88000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-201000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-657000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>142000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MSI_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2556000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2403000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2171000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2707000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2373000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2140000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1892000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2320000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2107000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1971000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1773000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2273000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1868000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1618000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1655000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2376000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1994000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1860000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1657000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2254000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1862000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1760000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1468000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1957000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1645000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1497000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1281000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1883000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>1532000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1276000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1214000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1125000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1356000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1342000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1150000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1035000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1137000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1062000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1019000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>913000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1127000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>959000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>852000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>868000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1156000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>987000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>929000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>884000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1166000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>961000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>938000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>799000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>987000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>851000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>807000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>711000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>955000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>770000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1280000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1189000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1046000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1351000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1031000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>990000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>857000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1183000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1045000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>952000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>860000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1146000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>909000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>766000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>787000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1220000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1007000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>931000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>773000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1088000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>901000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>822000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>669000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>970000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>794000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>690000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>570000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>928000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>762000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,8 +1098,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,88 +1108,91 @@
         <v>215000</v>
       </c>
       <c r="E12" s="3">
+        <v>215000</v>
+      </c>
+      <c r="F12" s="3">
         <v>210000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>202000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>197000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>191000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>188000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>189000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>183000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>181000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>180000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>181000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>175000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>161000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>168000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>182000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>172000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>170000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>162000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>165000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>158000</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>162000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>152000</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>155000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>141000</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>138000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>135000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>142000</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,186 +1280,195 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>17000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>26000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>28000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>27000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>22000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>14000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>71000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>39000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>27000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>55000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>28000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>17000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>26000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>29000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>16000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-9000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>60000</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E15" s="3">
         <v>43000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>55000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>63000</v>
       </c>
       <c r="G15" s="3">
         <v>63000</v>
       </c>
       <c r="H15" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I15" s="3">
         <v>65000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>66000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>64000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>56000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>58000</v>
       </c>
       <c r="M15" s="3">
         <v>58000</v>
       </c>
       <c r="N15" s="3">
+        <v>58000</v>
+      </c>
+      <c r="O15" s="3">
         <v>57000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>54000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>51000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>53000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>54000</v>
-      </c>
-      <c r="S15" s="3">
-        <v>52000</v>
       </c>
       <c r="T15" s="3">
         <v>52000</v>
       </c>
       <c r="U15" s="3">
+        <v>52000</v>
+      </c>
+      <c r="V15" s="3">
         <v>50000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>48000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>46000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>53000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>41000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>40000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>39000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>37000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>36000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>30000</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1924000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1888000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1778000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2016000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1788000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1654000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1771000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1656000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1619000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1475000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1722000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1572000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1400000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1396000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1788000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1589000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1557000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1436000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1743000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1562000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1487000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1297000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1456000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1298000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1240000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1105000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1484000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>1193000</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E18" s="3">
         <v>515000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>393000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>691000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>373000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>352000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>238000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>549000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>451000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>352000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>298000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>551000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>296000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>218000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>259000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>588000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>405000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>303000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>221000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>511000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>273000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>171000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>501000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>347000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>257000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>176000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>399000</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>339000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1682,453 +1715,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E20" s="3">
         <v>35000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>28000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>33000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>22000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>7000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>39000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>47000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>29000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>18000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-336000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>31000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>24000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>32000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>17000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>23000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>16000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-6000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>3000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>19000</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>738000</v>
+      </c>
+      <c r="E21" s="3">
         <v>637000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>519000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>833000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>503000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>471000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>388000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>686000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>568000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>496000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>455000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>689000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>414000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>334000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>378000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>356000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>507000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>430000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>340000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>620000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>421000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>386000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>276000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>606000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>429000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>346000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>254000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>493000</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>427000</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>63000</v>
+        <v>60000</v>
       </c>
       <c r="E22" s="3">
         <v>63000</v>
       </c>
       <c r="F22" s="3">
+        <v>63000</v>
+      </c>
+      <c r="G22" s="3">
         <v>61000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>62000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>58000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>55000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>58000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>56000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>58000</v>
-      </c>
-      <c r="O22" s="3">
-        <v>60000</v>
       </c>
       <c r="P22" s="3">
         <v>60000</v>
       </c>
       <c r="Q22" s="3">
+        <v>60000</v>
+      </c>
+      <c r="R22" s="3">
         <v>55000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>59000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>60000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>59000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>60000</v>
-      </c>
-      <c r="V22" s="3">
-        <v>62000</v>
       </c>
       <c r="W22" s="3">
         <v>62000</v>
       </c>
       <c r="X22" s="3">
+        <v>62000</v>
+      </c>
+      <c r="Y22" s="3">
         <v>63000</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>54000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>51000</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>55000</v>
       </c>
       <c r="AB22" s="3">
         <v>55000</v>
       </c>
       <c r="AC22" s="3">
+        <v>55000</v>
+      </c>
+      <c r="AD22" s="3">
         <v>54000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>56000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>58000</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>592000</v>
+      </c>
+      <c r="E23" s="3">
         <v>487000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>358000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>663000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>333000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>300000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>219000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>518000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>405000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>340000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>289000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>522000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>251000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>176000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>224000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>193000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>348000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>275000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>185000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>465000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>270000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>227000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>140000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>466000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>286000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>205000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>120000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>362000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>293000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>127000</v>
+      </c>
+      <c r="E24" s="3">
         <v>114000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>79000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>73000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>53000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>71000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-49000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>116000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>97000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>46000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>44000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>45000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>40000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>26000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-50000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>80000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>67000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>33000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>107000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>36000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>46000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>23000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>165000</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>73000</v>
       </c>
       <c r="AB24" s="3">
         <v>73000</v>
       </c>
       <c r="AC24" s="3">
+        <v>73000</v>
+      </c>
+      <c r="AD24" s="3">
         <v>42000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>118000</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E26" s="3">
         <v>373000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>279000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>590000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>280000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>229000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>268000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>402000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>308000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>294000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>245000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>413000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>206000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>136000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>198000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>243000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>268000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>208000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>152000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>358000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>234000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>181000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>117000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>301000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>213000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>132000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>78000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>244000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>193000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E27" s="3">
         <v>371000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>278000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>589000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>279000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>228000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>267000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>401000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>307000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>293000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>244000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>412000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>205000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>135000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>197000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>243000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>267000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>207000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>151000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>357000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>233000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>180000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>117000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>299000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>212000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>131000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>77000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>243000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2524,17 +2585,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2542,23 +2603,23 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>65000</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>14000</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-874000</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2566,14 +2627,17 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AD29" s="3">
-        <v>0</v>
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,186 +2817,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-35000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-28000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-33000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-22000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-7000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-39000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-12000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-47000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-29000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>336000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-31000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-24000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-32000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-23000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>6000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-3000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-19000</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E33" s="3">
         <v>371000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>278000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>589000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>279000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>228000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>267000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>401000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>307000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>293000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>244000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>412000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>205000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>135000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>197000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>243000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>267000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>207000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>151000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>422000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>247000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>180000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>117000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-575000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>212000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>131000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>77000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>243000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E35" s="3">
         <v>371000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>278000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>589000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>279000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>228000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>267000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>401000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>307000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>293000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>244000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>412000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>205000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>135000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>197000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>243000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>267000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>207000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>151000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>422000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>247000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>180000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>117000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-575000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>212000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>131000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>77000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>243000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,97 +3352,101 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>910000</v>
+      </c>
+      <c r="E41" s="3">
         <v>710000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1022000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1325000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>822000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>717000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>878000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1874000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1653000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1921000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1320000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1254000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1007000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1341000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1672000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1001000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1138000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>953000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>886000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1246000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>839000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>878000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>795000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1205000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>653000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>742000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>766000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>1030000</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>1687000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3433,642 +3523,666 @@
         <v>0</v>
       </c>
       <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>50000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>45000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>46000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2918000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2664000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2475000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2633000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2488000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2405000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2231000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2562000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2296000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1936000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2398000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2314000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2141000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2161000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2559000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2355000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2262000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2201000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2473000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2272000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2069000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2136000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1675000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1526000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1321000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1164000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1500000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>1264000</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>959000</v>
+      </c>
+      <c r="E44" s="3">
         <v>1020000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1082000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1055000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1157000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1071000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>952000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>788000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>604000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>559000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>530000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>508000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>489000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>449000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>442000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>447000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>460000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>424000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>425000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>356000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>367000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>391000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>441000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>876000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>959000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>920000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>895000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>768000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>696000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E45" s="3">
         <v>232000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>247000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>242000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>240000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>218000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>219000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>188000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>182000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>180000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>156000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>167000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>161000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>155000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>206000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>171000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>201000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>192000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>202000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>197000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>186000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>243000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>249000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>194000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>198000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>178000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>203000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>124000</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5032000</v>
+      </c>
+      <c r="E46" s="3">
         <v>4626000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4826000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5255000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4707000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4411000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4280000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5412000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4735000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4660000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3942000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4327000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3971000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4086000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4481000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4178000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4154000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3831000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3714000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4272000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>3664000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>3581000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3621000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3950000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3336000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>3211000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>3073000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>3468000</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>3804000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>251000</v>
+      </c>
+      <c r="E47" s="3">
         <v>267000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>263000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>277000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>266000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>280000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>301000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>333000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>327000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>291000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>273000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>263000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>255000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>258000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>253000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>307000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>261000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>328000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>323000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>330000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>372000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>363000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>364000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>358000</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>312000</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>323000</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>314000</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>327000</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>300000</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1384000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1413000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1399000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1412000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1204000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1405000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1467000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1424000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1426000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1458000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1476000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1490000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1448000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1427000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1453000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1546000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1524000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1507000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1530000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>895000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>892000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>895000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>900000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>856000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>889000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>859000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>820000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>789000</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>780000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>4495000</v>
+      </c>
+      <c r="E49" s="3">
         <v>4556000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>4589000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>4654000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>4028000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>4128000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>4168000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>3670000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3583000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3342000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3401000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3453000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3475000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3365000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3317000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3394000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3337000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3184000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3276000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2744000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2838000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2868000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1799000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1828000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1617000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1615000</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>1549000</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>1366000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1274000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1390000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1276000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1216000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1420000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1448000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1433000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1350000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1351000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1380000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1331000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1343000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1212000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1238000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1212000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1217000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1097000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1124000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1150000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1168000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1197000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1174000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1195000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1245000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2253000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>2285000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>2318000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2330000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2369000</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12436000</v>
+      </c>
+      <c r="E54" s="3">
         <v>12252000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12353000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12814000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11625000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11672000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11649000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12189000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11422000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11131000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10423000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10876000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10361000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10374000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>10716000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10642000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10373000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>9974000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>9993000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>9409000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>8963000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8881000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9051000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>8208000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>8618000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>8295000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>8140000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>8463000</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>8619000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,105 +4708,109 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E57" s="3">
         <v>676000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>719000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1062000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>885000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>919000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>827000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>851000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>620000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>547000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>484000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>612000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>536000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>498000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>531000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>618000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>557000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>544000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>558000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>592000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>456000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>430000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>463000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>593000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>473000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>440000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>433000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>553000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>406000</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>1313000</v>
       </c>
       <c r="E58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>1000</v>
@@ -4685,435 +4819,450 @@
         <v>1000</v>
       </c>
       <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>6000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>9000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>12000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>212000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>517000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>814000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>16000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>617000</v>
-      </c>
-      <c r="T58" s="3">
-        <v>28000</v>
       </c>
       <c r="U58" s="3">
         <v>28000</v>
       </c>
       <c r="V58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="W58" s="3">
         <v>31000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>337000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>347000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>492000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>52000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>47000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>46000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>44000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>4000</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>5000</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3253000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3090000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3246000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3497000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2882000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2880000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3055000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3207000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2803000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2628000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2600000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2865000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2564000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2465000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2534000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2805000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2482000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2304000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2393000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2473000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2295000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2145000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2141000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2286000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2043000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1924000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1908000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>2111000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1750000</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5288000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3766000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3966000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4560000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3768000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3801000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3886000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4063000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3429000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3184000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3095000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3489000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3312000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3480000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3879000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3439000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3656000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2876000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2979000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3096000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3088000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2922000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3096000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2931000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2563000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2410000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2385000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2668000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>2161000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4704000</v>
+      </c>
+      <c r="E61" s="3">
         <v>6015000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>6014000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>6013000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>6012000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>6011000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5689000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5688000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5687000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5686000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5164000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5163000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5162000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>5111000</v>
       </c>
       <c r="Q61" s="3">
         <v>5111000</v>
       </c>
       <c r="R61" s="3">
+        <v>5111000</v>
+      </c>
+      <c r="S61" s="3">
         <v>5113000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5112000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5315000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5287000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5289000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5095000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5298000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5304000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>4419000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>4423000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>4421000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>4414000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>4392000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5044000</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2068000</v>
+      </c>
+      <c r="E62" s="3">
         <v>2120000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2124000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2110000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>2239000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2290000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2372000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2461000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>2554000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2605000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2642000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2765000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2627000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2598000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2656000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>2773000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>2689000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>2737000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>2817000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>2300000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>2175000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2153000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2190000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2585000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>2450000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>2440000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>2378000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>2355000</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>2062000</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12074000</v>
+      </c>
+      <c r="E66" s="3">
         <v>11915000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>12119000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>12698000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>12033000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12115000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11965000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12229000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11685000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11489000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10919000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>11434000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11117000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>11204000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11664000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11342000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11474000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10944000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>11101000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>10702000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10374000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10388000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>10605000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9950000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>9448000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>9283000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>9190000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>9427000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>9278000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1333000</v>
+        <v>1326000</v>
       </c>
       <c r="E72" s="3">
         <v>1333000</v>
       </c>
       <c r="F72" s="3">
+        <v>1333000</v>
+      </c>
+      <c r="G72" s="3">
         <v>1343000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>989000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>936000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1002000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1350000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1201000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1151000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1080000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1127000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1008000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1017000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1074000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1239000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1220000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1051000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>963000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1051000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>788000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>627000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>531000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>467000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>981000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>945000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>970000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1148000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1096000</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>362000</v>
+      </c>
+      <c r="E76" s="3">
         <v>337000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>234000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>116000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-408000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-443000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-316000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-40000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-263000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-358000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-496000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-558000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-756000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-830000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-948000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-700000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1101000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-970000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1108000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1293000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1411000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-1507000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-1554000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-1742000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-830000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-988000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-1050000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-964000</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>-659000</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>464000</v>
+      </c>
+      <c r="E81" s="3">
         <v>371000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>278000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>589000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>279000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>228000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>267000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>401000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>307000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>293000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>244000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>412000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>205000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>135000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>197000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>243000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>267000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>207000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>151000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>422000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>247000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>180000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>117000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-575000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>212000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>131000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>77000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>243000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,97 +6805,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E83" s="3">
         <v>87000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>98000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>109000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>108000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>112000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>111000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>113000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>105000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>110000</v>
       </c>
       <c r="M83" s="3">
         <v>110000</v>
       </c>
       <c r="N83" s="3">
+        <v>110000</v>
+      </c>
+      <c r="O83" s="3">
         <v>109000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>103000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>98000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>99000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>104000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>99000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>96000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>95000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>93000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>89000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>96000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>82000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>89000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>88000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>86000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>80000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>75000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>714000</v>
+      </c>
+      <c r="E89" s="3">
         <v>93000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1273000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>388000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>10000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>152000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>703000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>376000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>388000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>370000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>704000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>392000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>209000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>308000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>795000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>526000</v>
-      </c>
-      <c r="T89" s="3">
-        <v>251000</v>
       </c>
       <c r="U89" s="3">
         <v>251000</v>
       </c>
       <c r="V89" s="3">
+        <v>251000</v>
+      </c>
+      <c r="W89" s="3">
         <v>812000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>338000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>425000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>761000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>270000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>173000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>142000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>513000</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>348000</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-53000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-54000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-73000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-59000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-54000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-68000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-61000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-52000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-66000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-49000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-54000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-48000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-59000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-60000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-63000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-66000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-69000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-46000</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-41000</v>
       </c>
       <c r="Y91" s="3">
         <v>-41000</v>
       </c>
       <c r="Z91" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-85000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-53000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-68000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-60000</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-68000</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-58000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-53000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-652000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-62000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-116000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-557000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-217000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-411000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-62000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-52000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-68000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-228000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-115000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-26000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-132000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-312000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-58000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-432000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-70000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-40000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-67000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1089000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-33000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-226000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-68000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-121000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-281000</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-57000</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,19 +7885,20 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-148000</v>
+        <v>-147000</v>
       </c>
       <c r="E96" s="3">
         <v>-148000</v>
       </c>
       <c r="F96" s="3">
-        <v>-132000</v>
+        <v>-148000</v>
       </c>
       <c r="G96" s="3">
         <v>-132000</v>
@@ -7673,22 +7907,22 @@
         <v>-132000</v>
       </c>
       <c r="I96" s="3">
+        <v>-132000</v>
+      </c>
+      <c r="J96" s="3">
         <v>-134000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-120000</v>
       </c>
       <c r="K96" s="3">
         <v>-120000</v>
       </c>
       <c r="L96" s="3">
-        <v>-121000</v>
+        <v>-120000</v>
       </c>
       <c r="M96" s="3">
         <v>-121000</v>
       </c>
       <c r="N96" s="3">
-        <v>-109000</v>
+        <v>-121000</v>
       </c>
       <c r="O96" s="3">
         <v>-109000</v>
@@ -7700,22 +7934,22 @@
         <v>-109000</v>
       </c>
       <c r="R96" s="3">
+        <v>-109000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-98000</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-94000</v>
       </c>
       <c r="T96" s="3">
         <v>-94000</v>
       </c>
       <c r="U96" s="3">
+        <v>-94000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-93000</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-85000</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-84000</v>
       </c>
       <c r="X96" s="3">
         <v>-84000</v>
@@ -7724,25 +7958,28 @@
         <v>-84000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-84000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-77000</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-76000</v>
-      </c>
-      <c r="AB96" s="3">
-        <v>-77000</v>
       </c>
       <c r="AC96" s="3">
         <v>-77000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-77000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-67000</v>
       </c>
-      <c r="AE96" s="3">
+      <c r="AF96" s="3">
         <v>-70000</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-366000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-263000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-202000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-140000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-577000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-250000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-209000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>286000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-256000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-434000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-515000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-456000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>439000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-815000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-18000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-110000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-201000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-314000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-388000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-227000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1149000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-185000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-152000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-151000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-234000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-851000</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-140000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E101" s="3">
         <v>19000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>21000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>84000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-81000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-68000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-11000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>45000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>17000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>31000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-50000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-20000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-16000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>22000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-22000</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-48000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>30000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>8000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>20000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>22000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>12000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-38000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-9000</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-312000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-303000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>503000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>105000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-161000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-996000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>221000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-268000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>601000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>66000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>247000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-334000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-331000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>671000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-139000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>176000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>67000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-360000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>406000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-90000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>83000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-410000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>551000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-88000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-201000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-657000</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>142000</v>
       </c>
     </row>
